--- a/resources/templates/CSF-2.0-Maturity-and-Progress-Tracker-(MaPT).xlsx
+++ b/resources/templates/CSF-2.0-Maturity-and-Progress-Tracker-(MaPT).xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://opticcybercom.sharepoint.com/sites/marketing/Shared Documents/Website/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{9AEBB66D-920F-46FF-8C77-AD67E84BBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7436DC4-9252-450A-A5F3-FE8D0DBF9A94}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{9AEBB66D-920F-46FF-8C77-AD67E84BBEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD636B94-783F-4427-8E37-E719B0D284D4}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="mYHQsanZR2kuoj3EczCFKFfb75CP0iQeAMflkmqB/sO41Bqv4VOrN92s5Ao9EBECqOw/UKusEkxMaqE/MS61Gw==" workbookSaltValue="YQ3agABxRRnnZIe3KmYB6w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D3338E33-B898-4FA6-A822-4F0A15BCCC45}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" xr2:uid="{D3338E33-B898-4FA6-A822-4F0A15BCCC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -4517,17 +4517,22 @@
     </r>
   </si>
   <si>
-    <t>The organizational mission is generaly understood by the leadership team.</t>
-  </si>
-  <si>
-    <t>The mission statement should be reviewed and published in the annual report. It should be communicated to all staff when hired and identify our key goals of protecting client data while ensuring customer access to our resources.</t>
+    <t>[Elevator pitch characterizing current capabilities across people, process, and technology.]
+Example: 
+- Employees have a general understanding of the mission and sectors we support.</t>
+  </si>
+  <si>
+    <t>[Elevator pitch characterizing risk-based, target capabilities across people, process, and technology.]
+Example: 
+- Our mission statement is formalized and published on our website.
+- Our mission statement defines our primary goals as an organization and identifies the business sectors we support.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4760,6 +4765,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -5474,7 +5486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -5929,19 +5941,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -5998,6 +5998,14 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9167,7 +9175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65495D6A-ACE7-435B-A0AD-AD788291FF5F}" type="CELLRANGE">
+                    <a:fld id="{D9C2D351-00D4-4229-B0AA-B330C3367EB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9201,7 +9209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE75F30E-8FC2-4209-9924-6E074DF4ABF1}" type="CELLRANGE">
+                    <a:fld id="{713A18BA-BDD8-41AC-BF61-A8595C932359}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9235,7 +9243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F5AB3DB-2385-485D-AC13-AAAA190EBE8E}" type="CELLRANGE">
+                    <a:fld id="{E5C67D69-17FD-4FF2-BE10-3013DFDCE1A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9269,7 +9277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4DEB02E-C580-47DF-BDD7-E57EF7D826CD}" type="CELLRANGE">
+                    <a:fld id="{D9D14EF8-61A4-4F42-962D-DF7AC4C3E5C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9303,7 +9311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6BEA934C-E97C-4891-AD9E-E82330AA459E}" type="CELLRANGE">
+                    <a:fld id="{BBF3E818-E199-476F-A9B2-840198528FAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9337,7 +9345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85CCE9C7-ADFC-4BC1-8451-7EAF3BE7B824}" type="CELLRANGE">
+                    <a:fld id="{7D9F4F6B-DBEC-4228-9AEE-9DC247683EB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9875,7 +9883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A022CDBE-9691-4C4E-9C34-C6C5491416FC}" type="CELLRANGE">
+                    <a:fld id="{1084F6A8-9F18-4997-A38F-0848CF2392A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9909,7 +9917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEF39603-F417-404C-87FC-279DFE6E298C}" type="CELLRANGE">
+                    <a:fld id="{D529FA95-864A-401A-AE5D-DC7541B8DD9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9943,7 +9951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F77BD829-61AF-4F88-870E-B499B5C4A134}" type="CELLRANGE">
+                    <a:fld id="{B7B57238-F6D4-4BBD-A215-3F2305976DB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9977,7 +9985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{552FD9D4-5D60-4CB7-8180-44357ED2B611}" type="CELLRANGE">
+                    <a:fld id="{163E03E5-7060-47D1-99D5-A2F057AB16F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10011,7 +10019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{893A0FD4-78FD-4DCE-9F0C-1380B2222C1A}" type="CELLRANGE">
+                    <a:fld id="{F50613C5-AFAB-4D94-8D68-9F878A40384A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10045,7 +10053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{381CE503-3143-45B1-8B29-DBFC77236360}" type="CELLRANGE">
+                    <a:fld id="{9CD26F94-5E15-4B60-BCB8-64A3F9B94C84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16452,31 +16460,31 @@
   <dimension ref="A1:BB60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="54" width="9.1796875" style="110"/>
+    <col min="1" max="1" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="54" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B1" s="184"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="181"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -16491,22 +16499,22 @@
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B3" s="184"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -16521,37 +16529,37 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="181"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="184"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="186"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="181"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="183"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Q4&amp;" - "&amp;R4</f>
         <v xml:space="preserve"> - </v>
@@ -16570,102 +16578,102 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Q5&amp;" - "&amp;R5</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="183"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="180"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Q6&amp;" - "&amp;R6</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="177" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Q7&amp;" - "&amp;R7</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Q8&amp;" - "&amp;R8</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -16683,94 +16691,94 @@
       <c r="R13" s="111"/>
       <c r="S13" s="111"/>
     </row>
-    <row r="14" spans="1:19" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
-      <c r="C14" s="181" t="s">
+      <c r="C14" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="183"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="177" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>R14</f>
         <v>0</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18:A22" si="0">R15</f>
         <v>0</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16789,115 +16797,115 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
     </row>
-    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="183"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
       <c r="N20" s="21"/>
     </row>
-    <row r="21" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="177" t="s">
         <v>322</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
       <c r="N21" s="21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
       <c r="N22" s="21"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="381.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="381.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="C25" s="177" t="s">
+      <c r="C25" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="179"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="176"/>
       <c r="N25" s="21"/>
     </row>
-    <row r="26" spans="1:14" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -16912,7 +16920,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
     </row>
-    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="24" t="s">
         <v>175</v>
@@ -16929,20 +16937,20 @@
       <c r="M27" s="23"/>
       <c r="N27" s="21"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
     </row>
-    <row r="42" spans="2:3" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C43" s="25"/>
     </row>
-    <row r="45" spans="2:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C45" s="25"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="17"/>
     </row>
   </sheetData>
@@ -16971,24 +16979,24 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="36" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="42" style="16" customWidth="1"/>
     <col min="7" max="7" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="20"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="20"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="50.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="122" t="s">
         <v>166</v>
       </c>
@@ -17000,23 +17008,23 @@
       <c r="H1" s="125"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="B2" s="126"/>
-      <c r="C2" s="187" t="s">
+      <c r="C2" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187" t="s">
+      <c r="D2" s="185"/>
+      <c r="E2" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="188"/>
+      <c r="F2" s="185"/>
       <c r="G2" s="127"/>
       <c r="H2" s="119" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="128" t="s">
         <v>140</v>
       </c>
@@ -17038,7 +17046,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A4" s="134" t="str" cm="1">
         <f t="array" ref="A4">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B4)),_xlfn.TEXTBEFORE(B4," ("),ISNUMBER(SEARCH("(??.??)",B4)),"Category",ISNUMBER(SEARCH("??.??-",B4)),"Subcategory",1=1,"")</f>
         <v>GOVERN</v>
@@ -17057,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="134" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="134" t="str" cm="1">
         <f t="array" ref="A5">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B5)),_xlfn.TEXTBEFORE(B5," ("),ISNUMBER(SEARCH("(??.??)",B5)),"Category",ISNUMBER(SEARCH("??.??-",B5)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17076,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="134" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="134" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="134" t="str" cm="1">
         <f t="array" ref="A6">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B6)),_xlfn.TEXTBEFORE(B6," ("),ISNUMBER(SEARCH("(??.??)",B6)),"Category",ISNUMBER(SEARCH("??.??-",B6)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17084,20 +17092,20 @@
       <c r="B6" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="192" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="193" t="s">
         <v>324</v>
       </c>
-      <c r="E6" s="173" t="s">
+      <c r="E6" s="192" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="193" t="s">
         <v>325</v>
       </c>
-      <c r="G6" s="175"/>
-      <c r="H6" s="176" t="s">
+      <c r="G6" s="173"/>
+      <c r="H6" s="120" t="s">
         <v>147</v>
       </c>
       <c r="I6" s="140">
@@ -17105,7 +17113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A7" s="134" t="str" cm="1">
         <f t="array" ref="A7">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B7)),_xlfn.TEXTBEFORE(B7," ("),ISNUMBER(SEARCH("(??.??)",B7)),"Category",ISNUMBER(SEARCH("??.??-",B7)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17130,7 +17138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="str" cm="1">
         <f t="array" ref="A8">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B8)),_xlfn.TEXTBEFORE(B8," ("),ISNUMBER(SEARCH("(??.??)",B8)),"Category",ISNUMBER(SEARCH("??.??-",B8)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17155,7 +17163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="134" t="str" cm="1">
         <f t="array" ref="A9">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B9)),_xlfn.TEXTBEFORE(B9," ("),ISNUMBER(SEARCH("(??.??)",B9)),"Category",ISNUMBER(SEARCH("??.??-",B9)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17180,7 +17188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="134" t="str" cm="1">
         <f t="array" ref="A10">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B10)),_xlfn.TEXTBEFORE(B10," ("),ISNUMBER(SEARCH("(??.??)",B10)),"Category",ISNUMBER(SEARCH("??.??-",B10)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17205,7 +17213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="134" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="134" t="str" cm="1">
         <f t="array" ref="A11">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B11)),_xlfn.TEXTBEFORE(B11," ("),ISNUMBER(SEARCH("(??.??)",B11)),"Category",ISNUMBER(SEARCH("??.??-",B11)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17224,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="134" t="str" cm="1">
         <f t="array" ref="A12">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B12)),_xlfn.TEXTBEFORE(B12," ("),ISNUMBER(SEARCH("(??.??)",B12)),"Category",ISNUMBER(SEARCH("??.??-",B12)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17249,7 +17257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="134" t="str" cm="1">
         <f t="array" ref="A13">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B13)),_xlfn.TEXTBEFORE(B13," ("),ISNUMBER(SEARCH("(??.??)",B13)),"Category",ISNUMBER(SEARCH("??.??-",B13)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17274,7 +17282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A14" s="134" t="str" cm="1">
         <f t="array" ref="A14">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B14)),_xlfn.TEXTBEFORE(B14," ("),ISNUMBER(SEARCH("(??.??)",B14)),"Category",ISNUMBER(SEARCH("??.??-",B14)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17299,7 +17307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="134" t="str" cm="1">
         <f t="array" ref="A15">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B15)),_xlfn.TEXTBEFORE(B15," ("),ISNUMBER(SEARCH("(??.??)",B15)),"Category",ISNUMBER(SEARCH("??.??-",B15)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17324,7 +17332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A16" s="134" t="str" cm="1">
         <f t="array" ref="A16">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B16)),_xlfn.TEXTBEFORE(B16," ("),ISNUMBER(SEARCH("(??.??)",B16)),"Category",ISNUMBER(SEARCH("??.??-",B16)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17349,7 +17357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A17" s="134" t="str" cm="1">
         <f t="array" ref="A17">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B17)),_xlfn.TEXTBEFORE(B17," ("),ISNUMBER(SEARCH("(??.??)",B17)),"Category",ISNUMBER(SEARCH("??.??-",B17)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17374,7 +17382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="134" t="str" cm="1">
         <f t="array" ref="A18">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B18)),_xlfn.TEXTBEFORE(B18," ("),ISNUMBER(SEARCH("(??.??)",B18)),"Category",ISNUMBER(SEARCH("??.??-",B18)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17399,7 +17407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A19" s="134" t="str" cm="1">
         <f t="array" ref="A19">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B19)),_xlfn.TEXTBEFORE(B19," ("),ISNUMBER(SEARCH("(??.??)",B19)),"Category",ISNUMBER(SEARCH("??.??-",B19)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17418,7 +17426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A20" s="134" t="str" cm="1">
         <f t="array" ref="A20">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B20)),_xlfn.TEXTBEFORE(B20," ("),ISNUMBER(SEARCH("(??.??)",B20)),"Category",ISNUMBER(SEARCH("??.??-",B20)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17443,7 +17451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A21" s="134" t="str" cm="1">
         <f t="array" ref="A21">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B21)),_xlfn.TEXTBEFORE(B21," ("),ISNUMBER(SEARCH("(??.??)",B21)),"Category",ISNUMBER(SEARCH("??.??-",B21)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17468,7 +17476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A22" s="134" t="str" cm="1">
         <f t="array" ref="A22">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B22)),_xlfn.TEXTBEFORE(B22," ("),ISNUMBER(SEARCH("(??.??)",B22)),"Category",ISNUMBER(SEARCH("??.??-",B22)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17493,7 +17501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="134" t="str" cm="1">
         <f t="array" ref="A23">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B23)),_xlfn.TEXTBEFORE(B23," ("),ISNUMBER(SEARCH("(??.??)",B23)),"Category",ISNUMBER(SEARCH("??.??-",B23)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17518,7 +17526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A24" s="134" t="str" cm="1">
         <f t="array" ref="A24">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B24)),_xlfn.TEXTBEFORE(B24," ("),ISNUMBER(SEARCH("(??.??)",B24)),"Category",ISNUMBER(SEARCH("??.??-",B24)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17537,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A25" s="134" t="str" cm="1">
         <f t="array" ref="A25">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B25)),_xlfn.TEXTBEFORE(B25," ("),ISNUMBER(SEARCH("(??.??)",B25)),"Category",ISNUMBER(SEARCH("??.??-",B25)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17562,7 +17570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="134" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A26" s="134" t="str" cm="1">
         <f t="array" ref="A26">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B26)),_xlfn.TEXTBEFORE(B26," ("),ISNUMBER(SEARCH("(??.??)",B26)),"Category",ISNUMBER(SEARCH("??.??-",B26)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17587,7 +17595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A27" s="134" t="str" cm="1">
         <f t="array" ref="A27">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B27)),_xlfn.TEXTBEFORE(B27," ("),ISNUMBER(SEARCH("(??.??)",B27)),"Category",ISNUMBER(SEARCH("??.??-",B27)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17606,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A28" s="134" t="str" cm="1">
         <f t="array" ref="A28">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B28)),_xlfn.TEXTBEFORE(B28," ("),ISNUMBER(SEARCH("(??.??)",B28)),"Category",ISNUMBER(SEARCH("??.??-",B28)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17631,7 +17639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A29" s="134" t="str" cm="1">
         <f t="array" ref="A29">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B29)),_xlfn.TEXTBEFORE(B29," ("),ISNUMBER(SEARCH("(??.??)",B29)),"Category",ISNUMBER(SEARCH("??.??-",B29)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17656,7 +17664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A30" s="134" t="str" cm="1">
         <f t="array" ref="A30">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B30)),_xlfn.TEXTBEFORE(B30," ("),ISNUMBER(SEARCH("(??.??)",B30)),"Category",ISNUMBER(SEARCH("??.??-",B30)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17681,7 +17689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A31" s="134" t="str" cm="1">
         <f t="array" ref="A31">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B31)),_xlfn.TEXTBEFORE(B31," ("),ISNUMBER(SEARCH("(??.??)",B31)),"Category",ISNUMBER(SEARCH("??.??-",B31)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17700,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A32" s="134" t="str" cm="1">
         <f t="array" ref="A32">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B32)),_xlfn.TEXTBEFORE(B32," ("),ISNUMBER(SEARCH("(??.??)",B32)),"Category",ISNUMBER(SEARCH("??.??-",B32)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17725,7 +17733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A33" s="134" t="str" cm="1">
         <f t="array" ref="A33">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B33)),_xlfn.TEXTBEFORE(B33," ("),ISNUMBER(SEARCH("(??.??)",B33)),"Category",ISNUMBER(SEARCH("??.??-",B33)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17750,7 +17758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A34" s="134" t="str" cm="1">
         <f t="array" ref="A34">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B34)),_xlfn.TEXTBEFORE(B34," ("),ISNUMBER(SEARCH("(??.??)",B34)),"Category",ISNUMBER(SEARCH("??.??-",B34)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17775,7 +17783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A35" s="134" t="str" cm="1">
         <f t="array" ref="A35">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B35)),_xlfn.TEXTBEFORE(B35," ("),ISNUMBER(SEARCH("(??.??)",B35)),"Category",ISNUMBER(SEARCH("??.??-",B35)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17800,7 +17808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="134" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="134" t="str" cm="1">
         <f t="array" ref="A36">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B36)),_xlfn.TEXTBEFORE(B36," ("),ISNUMBER(SEARCH("(??.??)",B36)),"Category",ISNUMBER(SEARCH("??.??-",B36)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17825,7 +17833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A37" s="134" t="str" cm="1">
         <f t="array" ref="A37">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B37)),_xlfn.TEXTBEFORE(B37," ("),ISNUMBER(SEARCH("(??.??)",B37)),"Category",ISNUMBER(SEARCH("??.??-",B37)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17850,7 +17858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="134" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A38" s="134" t="str" cm="1">
         <f t="array" ref="A38">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B38)),_xlfn.TEXTBEFORE(B38," ("),ISNUMBER(SEARCH("(??.??)",B38)),"Category",ISNUMBER(SEARCH("??.??-",B38)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17875,7 +17883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A39" s="134" t="str" cm="1">
         <f t="array" ref="A39">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B39)),_xlfn.TEXTBEFORE(B39," ("),ISNUMBER(SEARCH("(??.??)",B39)),"Category",ISNUMBER(SEARCH("??.??-",B39)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17900,7 +17908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="134" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A40" s="134" t="str" cm="1">
         <f t="array" ref="A40">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B40)),_xlfn.TEXTBEFORE(B40," ("),ISNUMBER(SEARCH("(??.??)",B40)),"Category",ISNUMBER(SEARCH("??.??-",B40)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17925,7 +17933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A41" s="134" t="str" cm="1">
         <f t="array" ref="A41">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B41)),_xlfn.TEXTBEFORE(B41," ("),ISNUMBER(SEARCH("(??.??)",B41)),"Category",ISNUMBER(SEARCH("??.??-",B41)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -17950,7 +17958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A42" s="134" t="str" cm="1">
         <f t="array" ref="A42">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B42)),_xlfn.TEXTBEFORE(B42," ("),ISNUMBER(SEARCH("(??.??)",B42)),"Category",ISNUMBER(SEARCH("??.??-",B42)),"Subcategory",1=1,"")</f>
         <v>IDENTIFY</v>
@@ -17969,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="134" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="134" customFormat="1" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A43" s="134" t="str" cm="1">
         <f t="array" ref="A43">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B43)),_xlfn.TEXTBEFORE(B43," ("),ISNUMBER(SEARCH("(??.??)",B43)),"Category",ISNUMBER(SEARCH("??.??-",B43)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -17988,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="134" t="str" cm="1">
         <f t="array" ref="A44">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B44)),_xlfn.TEXTBEFORE(B44," ("),ISNUMBER(SEARCH("(??.??)",B44)),"Category",ISNUMBER(SEARCH("??.??-",B44)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18013,7 +18021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="134" t="str" cm="1">
         <f t="array" ref="A45">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B45)),_xlfn.TEXTBEFORE(B45," ("),ISNUMBER(SEARCH("(??.??)",B45)),"Category",ISNUMBER(SEARCH("??.??-",B45)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18038,7 +18046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="134" t="str" cm="1">
         <f t="array" ref="A46">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B46)),_xlfn.TEXTBEFORE(B46," ("),ISNUMBER(SEARCH("(??.??)",B46)),"Category",ISNUMBER(SEARCH("??.??-",B46)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18063,7 +18071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="134" t="str" cm="1">
         <f t="array" ref="A47">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B47)),_xlfn.TEXTBEFORE(B47," ("),ISNUMBER(SEARCH("(??.??)",B47)),"Category",ISNUMBER(SEARCH("??.??-",B47)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18088,7 +18096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="134" t="str" cm="1">
         <f t="array" ref="A48">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B48)),_xlfn.TEXTBEFORE(B48," ("),ISNUMBER(SEARCH("(??.??)",B48)),"Category",ISNUMBER(SEARCH("??.??-",B48)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18113,7 +18121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="134" t="str" cm="1">
         <f t="array" ref="A49">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B49)),_xlfn.TEXTBEFORE(B49," ("),ISNUMBER(SEARCH("(??.??)",B49)),"Category",ISNUMBER(SEARCH("??.??-",B49)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18138,7 +18146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="134" t="str" cm="1">
         <f t="array" ref="A50">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B50)),_xlfn.TEXTBEFORE(B50," ("),ISNUMBER(SEARCH("(??.??)",B50)),"Category",ISNUMBER(SEARCH("??.??-",B50)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18163,7 +18171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A51" s="134" t="str" cm="1">
         <f t="array" ref="A51">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B51)),_xlfn.TEXTBEFORE(B51," ("),ISNUMBER(SEARCH("(??.??)",B51)),"Category",ISNUMBER(SEARCH("??.??-",B51)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18182,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="134" t="str" cm="1">
         <f t="array" ref="A52">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B52)),_xlfn.TEXTBEFORE(B52," ("),ISNUMBER(SEARCH("(??.??)",B52)),"Category",ISNUMBER(SEARCH("??.??-",B52)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18207,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="str" cm="1">
         <f t="array" ref="A53">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B53)),_xlfn.TEXTBEFORE(B53," ("),ISNUMBER(SEARCH("(??.??)",B53)),"Category",ISNUMBER(SEARCH("??.??-",B53)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18232,7 +18240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="134" t="str" cm="1">
         <f t="array" ref="A54">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B54)),_xlfn.TEXTBEFORE(B54," ("),ISNUMBER(SEARCH("(??.??)",B54)),"Category",ISNUMBER(SEARCH("??.??-",B54)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18257,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="134" t="str" cm="1">
         <f t="array" ref="A55">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B55)),_xlfn.TEXTBEFORE(B55," ("),ISNUMBER(SEARCH("(??.??)",B55)),"Category",ISNUMBER(SEARCH("??.??-",B55)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18282,7 +18290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A56" s="134" t="str" cm="1">
         <f t="array" ref="A56">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B56)),_xlfn.TEXTBEFORE(B56," ("),ISNUMBER(SEARCH("(??.??)",B56)),"Category",ISNUMBER(SEARCH("??.??-",B56)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18307,7 +18315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A57" s="134" t="str" cm="1">
         <f t="array" ref="A57">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B57)),_xlfn.TEXTBEFORE(B57," ("),ISNUMBER(SEARCH("(??.??)",B57)),"Category",ISNUMBER(SEARCH("??.??-",B57)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18332,7 +18340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A58" s="134" t="str" cm="1">
         <f t="array" ref="A58">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B58)),_xlfn.TEXTBEFORE(B58," ("),ISNUMBER(SEARCH("(??.??)",B58)),"Category",ISNUMBER(SEARCH("??.??-",B58)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18357,7 +18365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A59" s="134" t="str" cm="1">
         <f t="array" ref="A59">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B59)),_xlfn.TEXTBEFORE(B59," ("),ISNUMBER(SEARCH("(??.??)",B59)),"Category",ISNUMBER(SEARCH("??.??-",B59)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18382,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A60" s="134" t="str" cm="1">
         <f t="array" ref="A60">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B60)),_xlfn.TEXTBEFORE(B60," ("),ISNUMBER(SEARCH("(??.??)",B60)),"Category",ISNUMBER(SEARCH("??.??-",B60)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18407,7 +18415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A61" s="134" t="str" cm="1">
         <f t="array" ref="A61">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B61)),_xlfn.TEXTBEFORE(B61," ("),ISNUMBER(SEARCH("(??.??)",B61)),"Category",ISNUMBER(SEARCH("??.??-",B61)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18432,7 +18440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A62" s="134" t="str" cm="1">
         <f t="array" ref="A62">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B62)),_xlfn.TEXTBEFORE(B62," ("),ISNUMBER(SEARCH("(??.??)",B62)),"Category",ISNUMBER(SEARCH("??.??-",B62)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18451,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="134" t="str" cm="1">
         <f t="array" ref="A63">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B63)),_xlfn.TEXTBEFORE(B63," ("),ISNUMBER(SEARCH("(??.??)",B63)),"Category",ISNUMBER(SEARCH("??.??-",B63)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18476,7 +18484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A64" s="134" t="str" cm="1">
         <f t="array" ref="A64">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B64)),_xlfn.TEXTBEFORE(B64," ("),ISNUMBER(SEARCH("(??.??)",B64)),"Category",ISNUMBER(SEARCH("??.??-",B64)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18501,7 +18509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A65" s="134" t="str" cm="1">
         <f t="array" ref="A65">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B65)),_xlfn.TEXTBEFORE(B65," ("),ISNUMBER(SEARCH("(??.??)",B65)),"Category",ISNUMBER(SEARCH("??.??-",B65)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18526,7 +18534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A66" s="134" t="str" cm="1">
         <f t="array" ref="A66">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B66)),_xlfn.TEXTBEFORE(B66," ("),ISNUMBER(SEARCH("(??.??)",B66)),"Category",ISNUMBER(SEARCH("??.??-",B66)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18551,7 +18559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A67" s="134" t="str" cm="1">
         <f t="array" ref="A67">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B67)),_xlfn.TEXTBEFORE(B67," ("),ISNUMBER(SEARCH("(??.??)",B67)),"Category",ISNUMBER(SEARCH("??.??-",B67)),"Subcategory",1=1,"")</f>
         <v>PROTECT</v>
@@ -18570,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" s="134" customFormat="1" ht="87" x14ac:dyDescent="0.25">
       <c r="A68" s="134" t="str" cm="1">
         <f t="array" ref="A68">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B68)),_xlfn.TEXTBEFORE(B68," ("),ISNUMBER(SEARCH("(??.??)",B68)),"Category",ISNUMBER(SEARCH("??.??-",B68)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18589,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A69" s="134" t="str" cm="1">
         <f t="array" ref="A69">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B69)),_xlfn.TEXTBEFORE(B69," ("),ISNUMBER(SEARCH("(??.??)",B69)),"Category",ISNUMBER(SEARCH("??.??-",B69)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18614,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="134" t="str" cm="1">
         <f t="array" ref="A70">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B70)),_xlfn.TEXTBEFORE(B70," ("),ISNUMBER(SEARCH("(??.??)",B70)),"Category",ISNUMBER(SEARCH("??.??-",B70)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18639,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A71" s="134" t="str" cm="1">
         <f t="array" ref="A71">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B71)),_xlfn.TEXTBEFORE(B71," ("),ISNUMBER(SEARCH("(??.??)",B71)),"Category",ISNUMBER(SEARCH("??.??-",B71)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18664,7 +18672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A72" s="134" t="str" cm="1">
         <f t="array" ref="A72">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B72)),_xlfn.TEXTBEFORE(B72," ("),ISNUMBER(SEARCH("(??.??)",B72)),"Category",ISNUMBER(SEARCH("??.??-",B72)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18689,7 +18697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" s="134" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A73" s="134" t="str" cm="1">
         <f t="array" ref="A73">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B73)),_xlfn.TEXTBEFORE(B73," ("),ISNUMBER(SEARCH("(??.??)",B73)),"Category",ISNUMBER(SEARCH("??.??-",B73)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18714,7 +18722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A74" s="134" t="str" cm="1">
         <f t="array" ref="A74">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B74)),_xlfn.TEXTBEFORE(B74," ("),ISNUMBER(SEARCH("(??.??)",B74)),"Category",ISNUMBER(SEARCH("??.??-",B74)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18739,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A75" s="134" t="str" cm="1">
         <f t="array" ref="A75">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B75)),_xlfn.TEXTBEFORE(B75," ("),ISNUMBER(SEARCH("(??.??)",B75)),"Category",ISNUMBER(SEARCH("??.??-",B75)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18758,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A76" s="134" t="str" cm="1">
         <f t="array" ref="A76">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B76)),_xlfn.TEXTBEFORE(B76," ("),ISNUMBER(SEARCH("(??.??)",B76)),"Category",ISNUMBER(SEARCH("??.??-",B76)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18783,7 +18791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A77" s="134" t="str" cm="1">
         <f t="array" ref="A77">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B77)),_xlfn.TEXTBEFORE(B77," ("),ISNUMBER(SEARCH("(??.??)",B77)),"Category",ISNUMBER(SEARCH("??.??-",B77)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18808,7 +18816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A78" s="134" t="str" cm="1">
         <f t="array" ref="A78">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B78)),_xlfn.TEXTBEFORE(B78," ("),ISNUMBER(SEARCH("(??.??)",B78)),"Category",ISNUMBER(SEARCH("??.??-",B78)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18827,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A79" s="134" t="str" cm="1">
         <f t="array" ref="A79">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B79)),_xlfn.TEXTBEFORE(B79," ("),ISNUMBER(SEARCH("(??.??)",B79)),"Category",ISNUMBER(SEARCH("??.??-",B79)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18852,7 +18860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A80" s="134" t="str" cm="1">
         <f t="array" ref="A80">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B80)),_xlfn.TEXTBEFORE(B80," ("),ISNUMBER(SEARCH("(??.??)",B80)),"Category",ISNUMBER(SEARCH("??.??-",B80)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18877,7 +18885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A81" s="134" t="str" cm="1">
         <f t="array" ref="A81">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B81)),_xlfn.TEXTBEFORE(B81," ("),ISNUMBER(SEARCH("(??.??)",B81)),"Category",ISNUMBER(SEARCH("??.??-",B81)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18902,7 +18910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A82" s="134" t="str" cm="1">
         <f t="array" ref="A82">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B82)),_xlfn.TEXTBEFORE(B82," ("),ISNUMBER(SEARCH("(??.??)",B82)),"Category",ISNUMBER(SEARCH("??.??-",B82)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18927,7 +18935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="134" customFormat="1" ht="70" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" s="134" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A83" s="134" t="str" cm="1">
         <f t="array" ref="A83">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B83)),_xlfn.TEXTBEFORE(B83," ("),ISNUMBER(SEARCH("(??.??)",B83)),"Category",ISNUMBER(SEARCH("??.??-",B83)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -18946,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A84" s="134" t="str" cm="1">
         <f t="array" ref="A84">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B84)),_xlfn.TEXTBEFORE(B84," ("),ISNUMBER(SEARCH("(??.??)",B84)),"Category",ISNUMBER(SEARCH("??.??-",B84)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18971,7 +18979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A85" s="134" t="str" cm="1">
         <f t="array" ref="A85">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B85)),_xlfn.TEXTBEFORE(B85," ("),ISNUMBER(SEARCH("(??.??)",B85)),"Category",ISNUMBER(SEARCH("??.??-",B85)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -18996,7 +19004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A86" s="134" t="str" cm="1">
         <f t="array" ref="A86">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B86)),_xlfn.TEXTBEFORE(B86," ("),ISNUMBER(SEARCH("(??.??)",B86)),"Category",ISNUMBER(SEARCH("??.??-",B86)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19021,7 +19029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A87" s="134" t="str" cm="1">
         <f t="array" ref="A87">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B87)),_xlfn.TEXTBEFORE(B87," ("),ISNUMBER(SEARCH("(??.??)",B87)),"Category",ISNUMBER(SEARCH("??.??-",B87)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19046,7 +19054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A88" s="134" t="str" cm="1">
         <f t="array" ref="A88">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B88)),_xlfn.TEXTBEFORE(B88," ("),ISNUMBER(SEARCH("(??.??)",B88)),"Category",ISNUMBER(SEARCH("??.??-",B88)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19071,7 +19079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A89" s="134" t="str" cm="1">
         <f t="array" ref="A89">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B89)),_xlfn.TEXTBEFORE(B89," ("),ISNUMBER(SEARCH("(??.??)",B89)),"Category",ISNUMBER(SEARCH("??.??-",B89)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19096,7 +19104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A90" s="134" t="str" cm="1">
         <f t="array" ref="A90">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B90)),_xlfn.TEXTBEFORE(B90," ("),ISNUMBER(SEARCH("(??.??)",B90)),"Category",ISNUMBER(SEARCH("??.??-",B90)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19115,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A91" s="134" t="str" cm="1">
         <f t="array" ref="A91">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B91)),_xlfn.TEXTBEFORE(B91," ("),ISNUMBER(SEARCH("(??.??)",B91)),"Category",ISNUMBER(SEARCH("??.??-",B91)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19140,7 +19148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A92" s="134" t="str" cm="1">
         <f t="array" ref="A92">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B92)),_xlfn.TEXTBEFORE(B92," ("),ISNUMBER(SEARCH("(??.??)",B92)),"Category",ISNUMBER(SEARCH("??.??-",B92)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19165,7 +19173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A93" s="134" t="str" cm="1">
         <f t="array" ref="A93">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B93)),_xlfn.TEXTBEFORE(B93," ("),ISNUMBER(SEARCH("(??.??)",B93)),"Category",ISNUMBER(SEARCH("??.??-",B93)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19190,7 +19198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A94" s="134" t="str" cm="1">
         <f t="array" ref="A94">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B94)),_xlfn.TEXTBEFORE(B94," ("),ISNUMBER(SEARCH("(??.??)",B94)),"Category",ISNUMBER(SEARCH("??.??-",B94)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19215,7 +19223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A95" s="134" t="str" cm="1">
         <f t="array" ref="A95">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B95)),_xlfn.TEXTBEFORE(B95," ("),ISNUMBER(SEARCH("(??.??)",B95)),"Category",ISNUMBER(SEARCH("??.??-",B95)),"Subcategory",1=1,"")</f>
         <v>DETECT</v>
@@ -19234,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A96" s="134" t="str" cm="1">
         <f t="array" ref="A96">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B96)),_xlfn.TEXTBEFORE(B96," ("),ISNUMBER(SEARCH("(??.??)",B96)),"Category",ISNUMBER(SEARCH("??.??-",B96)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19253,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A97" s="134" t="str" cm="1">
         <f t="array" ref="A97">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B97)),_xlfn.TEXTBEFORE(B97," ("),ISNUMBER(SEARCH("(??.??)",B97)),"Category",ISNUMBER(SEARCH("??.??-",B97)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19278,7 +19286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A98" s="134" t="str" cm="1">
         <f t="array" ref="A98">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B98)),_xlfn.TEXTBEFORE(B98," ("),ISNUMBER(SEARCH("(??.??)",B98)),"Category",ISNUMBER(SEARCH("??.??-",B98)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19303,7 +19311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A99" s="134" t="str" cm="1">
         <f t="array" ref="A99">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B99)),_xlfn.TEXTBEFORE(B99," ("),ISNUMBER(SEARCH("(??.??)",B99)),"Category",ISNUMBER(SEARCH("??.??-",B99)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19328,7 +19336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A100" s="134" t="str" cm="1">
         <f t="array" ref="A100">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B100)),_xlfn.TEXTBEFORE(B100," ("),ISNUMBER(SEARCH("(??.??)",B100)),"Category",ISNUMBER(SEARCH("??.??-",B100)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19353,7 +19361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A101" s="134" t="str" cm="1">
         <f t="array" ref="A101">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B101)),_xlfn.TEXTBEFORE(B101," ("),ISNUMBER(SEARCH("(??.??)",B101)),"Category",ISNUMBER(SEARCH("??.??-",B101)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19378,7 +19386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A102" s="134" t="str" cm="1">
         <f t="array" ref="A102">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B102)),_xlfn.TEXTBEFORE(B102," ("),ISNUMBER(SEARCH("(??.??)",B102)),"Category",ISNUMBER(SEARCH("??.??-",B102)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19397,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A103" s="134" t="str" cm="1">
         <f t="array" ref="A103">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B103)),_xlfn.TEXTBEFORE(B103," ("),ISNUMBER(SEARCH("(??.??)",B103)),"Category",ISNUMBER(SEARCH("??.??-",B103)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19422,7 +19430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A104" s="134" t="str" cm="1">
         <f t="array" ref="A104">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B104)),_xlfn.TEXTBEFORE(B104," ("),ISNUMBER(SEARCH("(??.??)",B104)),"Category",ISNUMBER(SEARCH("??.??-",B104)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19447,7 +19455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A105" s="134" t="str" cm="1">
         <f t="array" ref="A105">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B105)),_xlfn.TEXTBEFORE(B105," ("),ISNUMBER(SEARCH("(??.??)",B105)),"Category",ISNUMBER(SEARCH("??.??-",B105)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19472,7 +19480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="134" t="str" cm="1">
         <f t="array" ref="A106">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B106)),_xlfn.TEXTBEFORE(B106," ("),ISNUMBER(SEARCH("(??.??)",B106)),"Category",ISNUMBER(SEARCH("??.??-",B106)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19497,7 +19505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A107" s="134" t="str" cm="1">
         <f t="array" ref="A107">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B107)),_xlfn.TEXTBEFORE(B107," ("),ISNUMBER(SEARCH("(??.??)",B107)),"Category",ISNUMBER(SEARCH("??.??-",B107)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19522,7 +19530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A108" s="134" t="str" cm="1">
         <f t="array" ref="A108">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B108)),_xlfn.TEXTBEFORE(B108," ("),ISNUMBER(SEARCH("(??.??)",B108)),"Category",ISNUMBER(SEARCH("??.??-",B108)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19547,7 +19555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A109" s="134" t="str" cm="1">
         <f t="array" ref="A109">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B109)),_xlfn.TEXTBEFORE(B109," ("),ISNUMBER(SEARCH("(??.??)",B109)),"Category",ISNUMBER(SEARCH("??.??-",B109)),"Subcategory",1=1,"")</f>
         <v>RESPOND</v>
@@ -19566,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A110" s="134" t="str" cm="1">
         <f t="array" ref="A110">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B110)),_xlfn.TEXTBEFORE(B110," ("),ISNUMBER(SEARCH("(??.??)",B110)),"Category",ISNUMBER(SEARCH("??.??-",B110)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19585,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A111" s="134" t="str" cm="1">
         <f t="array" ref="A111">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B111)),_xlfn.TEXTBEFORE(B111," ("),ISNUMBER(SEARCH("(??.??)",B111)),"Category",ISNUMBER(SEARCH("??.??-",B111)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19610,7 +19618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A112" s="134" t="str" cm="1">
         <f t="array" ref="A112">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B112)),_xlfn.TEXTBEFORE(B112," ("),ISNUMBER(SEARCH("(??.??)",B112)),"Category",ISNUMBER(SEARCH("??.??-",B112)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19635,7 +19643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A113" s="134" t="str" cm="1">
         <f t="array" ref="A113">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B113)),_xlfn.TEXTBEFORE(B113," ("),ISNUMBER(SEARCH("(??.??)",B113)),"Category",ISNUMBER(SEARCH("??.??-",B113)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19660,7 +19668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A114" s="134" t="str" cm="1">
         <f t="array" ref="A114">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B114)),_xlfn.TEXTBEFORE(B114," ("),ISNUMBER(SEARCH("(??.??)",B114)),"Category",ISNUMBER(SEARCH("??.??-",B114)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19685,7 +19693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A115" s="134" t="str" cm="1">
         <f t="array" ref="A115">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B115)),_xlfn.TEXTBEFORE(B115," ("),ISNUMBER(SEARCH("(??.??)",B115)),"Category",ISNUMBER(SEARCH("??.??-",B115)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19710,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A116" s="134" t="str" cm="1">
         <f t="array" ref="A116">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B116)),_xlfn.TEXTBEFORE(B116," ("),ISNUMBER(SEARCH("(??.??)",B116)),"Category",ISNUMBER(SEARCH("??.??-",B116)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19729,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A117" s="134" t="str" cm="1">
         <f t="array" ref="A117">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B117)),_xlfn.TEXTBEFORE(B117," ("),ISNUMBER(SEARCH("(??.??)",B117)),"Category",ISNUMBER(SEARCH("??.??-",B117)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19754,7 +19762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A118" s="134" t="str" cm="1">
         <f t="array" ref="A118">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B118)),_xlfn.TEXTBEFORE(B118," ("),ISNUMBER(SEARCH("(??.??)",B118)),"Category",ISNUMBER(SEARCH("??.??-",B118)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19779,7 +19787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A119" s="134" t="str" cm="1">
         <f t="array" ref="A119">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B119)),_xlfn.TEXTBEFORE(B119," ("),ISNUMBER(SEARCH("(??.??)",B119)),"Category",ISNUMBER(SEARCH("??.??-",B119)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19804,7 +19812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A120" s="134" t="str" cm="1">
         <f t="array" ref="A120">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B120)),_xlfn.TEXTBEFORE(B120," ("),ISNUMBER(SEARCH("(??.??)",B120)),"Category",ISNUMBER(SEARCH("??.??-",B120)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19829,7 +19837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" s="134" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A121" s="134" t="str" cm="1">
         <f t="array" ref="A121">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B121)),_xlfn.TEXTBEFORE(B121," ("),ISNUMBER(SEARCH("(??.??)",B121)),"Category",ISNUMBER(SEARCH("??.??-",B121)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19848,7 +19856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A122" s="134" t="str" cm="1">
         <f t="array" ref="A122">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B122)),_xlfn.TEXTBEFORE(B122," ("),ISNUMBER(SEARCH("(??.??)",B122)),"Category",ISNUMBER(SEARCH("??.??-",B122)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19873,7 +19881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A123" s="134" t="str" cm="1">
         <f t="array" ref="A123">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B123)),_xlfn.TEXTBEFORE(B123," ("),ISNUMBER(SEARCH("(??.??)",B123)),"Category",ISNUMBER(SEARCH("??.??-",B123)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19898,7 +19906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A124" s="134" t="str" cm="1">
         <f t="array" ref="A124">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B124)),_xlfn.TEXTBEFORE(B124," ("),ISNUMBER(SEARCH("(??.??)",B124)),"Category",ISNUMBER(SEARCH("??.??-",B124)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -19917,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="134" t="str" cm="1">
         <f t="array" ref="A125">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B125)),_xlfn.TEXTBEFORE(B125," ("),ISNUMBER(SEARCH("(??.??)",B125)),"Category",ISNUMBER(SEARCH("??.??-",B125)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19942,7 +19950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="134" customFormat="1" ht="28" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" s="134" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A126" s="134" t="str" cm="1">
         <f t="array" ref="A126">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B126)),_xlfn.TEXTBEFORE(B126," ("),ISNUMBER(SEARCH("(??.??)",B126)),"Category",ISNUMBER(SEARCH("??.??-",B126)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -19967,7 +19975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A127" s="134" t="str" cm="1">
         <f t="array" ref="A127">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B127)),_xlfn.TEXTBEFORE(B127," ("),ISNUMBER(SEARCH("(??.??)",B127)),"Category",ISNUMBER(SEARCH("??.??-",B127)),"Subcategory",1=1,"")</f>
         <v>RECOVER</v>
@@ -19986,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" s="134" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A128" s="134" t="str" cm="1">
         <f t="array" ref="A128">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B128)),_xlfn.TEXTBEFORE(B128," ("),ISNUMBER(SEARCH("(??.??)",B128)),"Category",ISNUMBER(SEARCH("??.??-",B128)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -20005,7 +20013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A129" s="134" t="str" cm="1">
         <f t="array" ref="A129">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B129)),_xlfn.TEXTBEFORE(B129," ("),ISNUMBER(SEARCH("(??.??)",B129)),"Category",ISNUMBER(SEARCH("??.??-",B129)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20030,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A130" s="134" t="str" cm="1">
         <f t="array" ref="A130">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B130)),_xlfn.TEXTBEFORE(B130," ("),ISNUMBER(SEARCH("(??.??)",B130)),"Category",ISNUMBER(SEARCH("??.??-",B130)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20055,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A131" s="134" t="str" cm="1">
         <f t="array" ref="A131">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B131)),_xlfn.TEXTBEFORE(B131," ("),ISNUMBER(SEARCH("(??.??)",B131)),"Category",ISNUMBER(SEARCH("??.??-",B131)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20080,7 +20088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A132" s="134" t="str" cm="1">
         <f t="array" ref="A132">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B132)),_xlfn.TEXTBEFORE(B132," ("),ISNUMBER(SEARCH("(??.??)",B132)),"Category",ISNUMBER(SEARCH("??.??-",B132)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20105,7 +20113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A133" s="134" t="str" cm="1">
         <f t="array" ref="A133">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B133)),_xlfn.TEXTBEFORE(B133," ("),ISNUMBER(SEARCH("(??.??)",B133)),"Category",ISNUMBER(SEARCH("??.??-",B133)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20130,7 +20138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" s="134" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A134" s="134" t="str" cm="1">
         <f t="array" ref="A134">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B134)),_xlfn.TEXTBEFORE(B134," ("),ISNUMBER(SEARCH("(??.??)",B134)),"Category",ISNUMBER(SEARCH("??.??-",B134)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20155,7 +20163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="134" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" s="134" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A135" s="134" t="str" cm="1">
         <f t="array" ref="A135">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B135)),_xlfn.TEXTBEFORE(B135," ("),ISNUMBER(SEARCH("(??.??)",B135)),"Category",ISNUMBER(SEARCH("??.??-",B135)),"Subcategory",1=1,"")</f>
         <v>Category</v>
@@ -20174,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="134" customFormat="1" ht="56" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" s="134" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A136" s="134" t="str" cm="1">
         <f t="array" ref="A136">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B136)),_xlfn.TEXTBEFORE(B136," ("),ISNUMBER(SEARCH("(??.??)",B136)),"Category",ISNUMBER(SEARCH("??.??-",B136)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20199,7 +20207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="134" customFormat="1" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" s="134" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="134" t="str" cm="1">
         <f t="array" ref="A137">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B137)),_xlfn.TEXTBEFORE(B137," ("),ISNUMBER(SEARCH("(??.??)",B137)),"Category",ISNUMBER(SEARCH("??.??-",B137)),"Subcategory",1=1,"")</f>
         <v>Subcategory</v>
@@ -20224,7 +20232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="str" cm="1">
         <f t="array" ref="A138">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B138)),_xlfn.TEXTBEFORE(B138," ("),ISNUMBER(SEARCH("(??.??)",B138)),"Category",ISNUMBER(SEARCH("??.??-",B138)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20236,7 +20244,7 @@
       <c r="F138" s="29"/>
       <c r="I138" s="28"/>
     </row>
-    <row r="139" spans="1:9" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="str" cm="1">
         <f t="array" ref="A139">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B139)),_xlfn.TEXTBEFORE(B139," ("),ISNUMBER(SEARCH("(??.??)",B139)),"Category",ISNUMBER(SEARCH("??.??-",B139)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20248,7 +20256,7 @@
       <c r="F139" s="29"/>
       <c r="I139" s="28"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="str" cm="1">
         <f t="array" ref="A140">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B140)),_xlfn.TEXTBEFORE(B140," ("),ISNUMBER(SEARCH("(??.??)",B140)),"Category",ISNUMBER(SEARCH("??.??-",B140)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20257,7 +20265,7 @@
       <c r="C140" s="16"/>
       <c r="E140" s="16"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="str" cm="1">
         <f t="array" ref="A141">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B141)),_xlfn.TEXTBEFORE(B141," ("),ISNUMBER(SEARCH("(??.??)",B141)),"Category",ISNUMBER(SEARCH("??.??-",B141)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20266,7 +20274,7 @@
       <c r="C141" s="16"/>
       <c r="E141" s="16"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="str" cm="1">
         <f t="array" ref="A142">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B142)),_xlfn.TEXTBEFORE(B142," ("),ISNUMBER(SEARCH("(??.??)",B142)),"Category",ISNUMBER(SEARCH("??.??-",B142)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20275,7 +20283,7 @@
       <c r="C142" s="16"/>
       <c r="E142" s="16"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="str" cm="1">
         <f t="array" ref="A143">_xlfn.IFS(ISNUMBER(SEARCH("(??)",B143)),_xlfn.TEXTBEFORE(B143," ("),ISNUMBER(SEARCH("(??.??)",B143)),"Category",ISNUMBER(SEARCH("??.??-",B143)),"Subcategory",1=1,"")</f>
         <v/>
@@ -20318,79 +20326,79 @@
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="14.54296875" style="31" customWidth="1"/>
-    <col min="3" max="5" width="14.54296875" style="30" customWidth="1"/>
-    <col min="6" max="7" width="2.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="31" customWidth="1"/>
+    <col min="3" max="5" width="14.5703125" style="30" customWidth="1"/>
+    <col min="6" max="7" width="2.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="30" customWidth="1"/>
-    <col min="9" max="11" width="14.54296875" style="30" customWidth="1"/>
-    <col min="12" max="13" width="2.26953125" style="1" customWidth="1"/>
-    <col min="14" max="17" width="14.54296875" style="30" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="11" width="14.5703125" style="30" customWidth="1"/>
+    <col min="12" max="13" width="2.28515625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="14.5703125" style="30" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="189" t="s">
+    <row r="1" spans="1:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-    </row>
-    <row r="2" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="192" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="187"/>
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+    </row>
+    <row r="2" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="189" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="192" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="189" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="194"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="191"/>
       <c r="Z2" s="112"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
@@ -20417,7 +20425,7 @@
       <c r="X3" s="49"/>
       <c r="Z3" s="113"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="47"/>
@@ -20444,7 +20452,7 @@
       <c r="X4" s="49"/>
       <c r="Z4" s="113"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
@@ -20471,7 +20479,7 @@
       <c r="X5" s="49"/>
       <c r="Z5" s="113"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="45"/>
       <c r="B6" s="46"/>
       <c r="C6" s="47"/>
@@ -20497,7 +20505,7 @@
       <c r="W6" s="48"/>
       <c r="X6" s="49"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
@@ -20523,7 +20531,7 @@
       <c r="W7" s="48"/>
       <c r="X7" s="49"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="45"/>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
@@ -20549,7 +20557,7 @@
       <c r="W8" s="48"/>
       <c r="X8" s="49"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
@@ -20575,7 +20583,7 @@
       <c r="W9" s="48"/>
       <c r="X9" s="49"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="45"/>
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
@@ -20601,7 +20609,7 @@
       <c r="W10" s="48"/>
       <c r="X10" s="49"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
@@ -20627,7 +20635,7 @@
       <c r="W11" s="48"/>
       <c r="X11" s="49"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -20653,7 +20661,7 @@
       <c r="W12" s="48"/>
       <c r="X12" s="49"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
@@ -20679,7 +20687,7 @@
       <c r="W13" s="48"/>
       <c r="X13" s="49"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
@@ -20705,7 +20713,7 @@
       <c r="W14" s="48"/>
       <c r="X14" s="49"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="46"/>
       <c r="C15" s="47"/>
@@ -20731,7 +20739,7 @@
       <c r="W15" s="48"/>
       <c r="X15" s="49"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="46"/>
       <c r="C16" s="47"/>
@@ -20757,7 +20765,7 @@
       <c r="W16" s="48"/>
       <c r="X16" s="49"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
@@ -20783,7 +20791,7 @@
       <c r="W17" s="48"/>
       <c r="X17" s="49"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
@@ -20809,7 +20817,7 @@
       <c r="W18" s="48"/>
       <c r="X18" s="49"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="46"/>
       <c r="C19" s="47"/>
@@ -20835,7 +20843,7 @@
       <c r="W19" s="48"/>
       <c r="X19" s="49"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="46"/>
       <c r="C20" s="47"/>
@@ -20861,7 +20869,7 @@
       <c r="W20" s="48"/>
       <c r="X20" s="49"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="46"/>
       <c r="C21" s="47"/>
@@ -20887,7 +20895,7 @@
       <c r="W21" s="48"/>
       <c r="X21" s="49"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
       <c r="C22" s="47"/>
@@ -20913,7 +20921,7 @@
       <c r="W22" s="48"/>
       <c r="X22" s="49"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="46"/>
       <c r="C23" s="47"/>
@@ -20939,7 +20947,7 @@
       <c r="W23" s="48"/>
       <c r="X23" s="49"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
@@ -20965,7 +20973,7 @@
       <c r="W24" s="48"/>
       <c r="X24" s="49"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
@@ -20991,7 +20999,7 @@
       <c r="W25" s="48"/>
       <c r="X25" s="49"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
@@ -21017,7 +21025,7 @@
       <c r="W26" s="48"/>
       <c r="X26" s="49"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
@@ -21043,7 +21051,7 @@
       <c r="W27" s="48"/>
       <c r="X27" s="49"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
@@ -21069,7 +21077,7 @@
       <c r="W28" s="48"/>
       <c r="X28" s="49"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="46"/>
       <c r="C29" s="47"/>
@@ -21095,7 +21103,7 @@
       <c r="W29" s="48"/>
       <c r="X29" s="49"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
@@ -21121,7 +21129,7 @@
       <c r="W30" s="48"/>
       <c r="X30" s="49"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
@@ -21147,7 +21155,7 @@
       <c r="W31" s="48"/>
       <c r="X31" s="49"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -21173,7 +21181,7 @@
       <c r="W32" s="48"/>
       <c r="X32" s="49"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
@@ -21199,7 +21207,7 @@
       <c r="W33" s="48"/>
       <c r="X33" s="49"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
@@ -21225,7 +21233,7 @@
       <c r="W34" s="48"/>
       <c r="X34" s="49"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="46"/>
       <c r="C35" s="47"/>
@@ -21251,7 +21259,7 @@
       <c r="W35" s="48"/>
       <c r="X35" s="49"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="46"/>
       <c r="C36" s="47"/>
@@ -21277,7 +21285,7 @@
       <c r="W36" s="48"/>
       <c r="X36" s="49"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
       <c r="C37" s="47"/>
@@ -21303,7 +21311,7 @@
       <c r="W37" s="48"/>
       <c r="X37" s="49"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -21329,7 +21337,7 @@
       <c r="W38" s="48"/>
       <c r="X38" s="49"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -21355,7 +21363,7 @@
       <c r="W39" s="48"/>
       <c r="X39" s="49"/>
     </row>
-    <row r="40" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="52"/>
       <c r="B40" s="53"/>
       <c r="C40" s="54"/>
@@ -21381,7 +21389,7 @@
       <c r="W40" s="55"/>
       <c r="X40" s="58"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -21395,28 +21403,28 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="43" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="189" t="s">
+    <row r="42" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="186" t="s">
         <v>315</v>
       </c>
-      <c r="B43" s="190"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="190"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="190"/>
-      <c r="O43" s="190"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="191"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="187"/>
+      <c r="M43" s="187"/>
+      <c r="N43" s="187"/>
+      <c r="O43" s="187"/>
+      <c r="P43" s="187"/>
+      <c r="Q43" s="187"/>
+      <c r="R43" s="188"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22"/>
       <c r="U43" s="22"/>
@@ -21426,7 +21434,7 @@
       <c r="Y43" s="22"/>
       <c r="Z43" s="22"/>
     </row>
-    <row r="44" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="45"/>
       <c r="B44" s="46"/>
       <c r="C44" s="47"/>
@@ -21446,7 +21454,7 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="72"/>
     </row>
-    <row r="45" spans="1:26" s="22" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" s="22" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="41" t="s">
         <v>144</v>
@@ -21493,7 +21501,7 @@
       </c>
       <c r="R45" s="76"/>
     </row>
-    <row r="46" spans="1:26" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="91" t="str">
         <f>_xlfn.TEXTBEFORE(B46,"(")</f>
         <v xml:space="preserve">GOVERN </v>
@@ -21555,7 +21563,7 @@
       </c>
       <c r="R46" s="76"/>
     </row>
-    <row r="47" spans="1:26" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="91" t="str">
         <f t="shared" ref="A47:A51" si="0">_xlfn.TEXTBEFORE(B47,"(")</f>
         <v xml:space="preserve">IDENTIFY </v>
@@ -21614,7 +21622,7 @@
       </c>
       <c r="R47" s="76"/>
     </row>
-    <row r="48" spans="1:26" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PROTECT </v>
@@ -21673,7 +21681,7 @@
       </c>
       <c r="R48" s="77"/>
     </row>
-    <row r="49" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">DETECT </v>
@@ -21732,7 +21740,7 @@
       </c>
       <c r="R49" s="77"/>
     </row>
-    <row r="50" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RESPOND </v>
@@ -21791,7 +21799,7 @@
       </c>
       <c r="R50" s="77"/>
     </row>
-    <row r="51" spans="1:18" s="22" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="22" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RECOVER </v>
@@ -21850,7 +21858,7 @@
       </c>
       <c r="R51" s="77"/>
     </row>
-    <row r="52" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="91"/>
       <c r="B52" s="78"/>
       <c r="C52" s="79"/>
@@ -21895,7 +21903,7 @@
       </c>
       <c r="R52" s="77"/>
     </row>
-    <row r="53" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="73"/>
       <c r="B53" s="78"/>
       <c r="C53" s="79"/>
@@ -21940,7 +21948,7 @@
       </c>
       <c r="R53" s="77"/>
     </row>
-    <row r="54" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="73"/>
       <c r="B54" s="78"/>
       <c r="C54" s="79"/>
@@ -21985,7 +21993,7 @@
       </c>
       <c r="R54" s="77"/>
     </row>
-    <row r="55" spans="1:18" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="73"/>
       <c r="B55" s="78"/>
       <c r="C55" s="79"/>
@@ -22030,7 +22038,7 @@
       </c>
       <c r="R55" s="77"/>
     </row>
-    <row r="56" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="73"/>
       <c r="B56" s="78"/>
       <c r="C56" s="79"/>
@@ -22075,7 +22083,7 @@
       </c>
       <c r="R56" s="77"/>
     </row>
-    <row r="57" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="73"/>
       <c r="B57" s="78"/>
       <c r="C57" s="79"/>
@@ -22120,7 +22128,7 @@
       </c>
       <c r="R57" s="77"/>
     </row>
-    <row r="58" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="73"/>
       <c r="B58" s="78"/>
       <c r="C58" s="79"/>
@@ -22165,7 +22173,7 @@
       </c>
       <c r="R58" s="77"/>
     </row>
-    <row r="59" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="73"/>
       <c r="B59" s="78"/>
       <c r="C59" s="79"/>
@@ -22210,7 +22218,7 @@
       </c>
       <c r="R59" s="77"/>
     </row>
-    <row r="60" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="73"/>
       <c r="B60" s="78"/>
       <c r="C60" s="79"/>
@@ -22255,7 +22263,7 @@
       </c>
       <c r="R60" s="77"/>
     </row>
-    <row r="61" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="73"/>
       <c r="B61" s="78"/>
       <c r="C61" s="79"/>
@@ -22300,7 +22308,7 @@
       </c>
       <c r="R61" s="77"/>
     </row>
-    <row r="62" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="73"/>
       <c r="B62" s="78"/>
       <c r="C62" s="79"/>
@@ -22345,7 +22353,7 @@
       </c>
       <c r="R62" s="77"/>
     </row>
-    <row r="63" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="73"/>
       <c r="B63" s="78"/>
       <c r="C63" s="79"/>
@@ -22390,7 +22398,7 @@
       </c>
       <c r="R63" s="77"/>
     </row>
-    <row r="64" spans="1:18" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="22" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="73"/>
       <c r="B64" s="78"/>
       <c r="C64" s="79"/>
@@ -22435,7 +22443,7 @@
       </c>
       <c r="R64" s="77"/>
     </row>
-    <row r="65" spans="1:18" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="73"/>
       <c r="B65" s="78"/>
       <c r="C65" s="79"/>
@@ -22480,7 +22488,7 @@
       </c>
       <c r="R65" s="77"/>
     </row>
-    <row r="66" spans="1:18" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="22" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="73"/>
       <c r="B66" s="78"/>
       <c r="C66" s="79"/>
@@ -22525,7 +22533,7 @@
       </c>
       <c r="R66" s="77"/>
     </row>
-    <row r="67" spans="1:18" s="22" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="22" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="73"/>
       <c r="B67" s="78"/>
       <c r="C67" s="79"/>
@@ -22570,7 +22578,7 @@
       </c>
       <c r="R67" s="77"/>
     </row>
-    <row r="68" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="73"/>
       <c r="B68" s="78"/>
       <c r="C68" s="79"/>
@@ -22601,7 +22609,7 @@
       </c>
       <c r="R68" s="77"/>
     </row>
-    <row r="69" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="73"/>
       <c r="B69" s="78"/>
       <c r="C69" s="79"/>
@@ -22632,7 +22640,7 @@
       </c>
       <c r="R69" s="77"/>
     </row>
-    <row r="70" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="73"/>
       <c r="B70" s="78"/>
       <c r="C70" s="79"/>
@@ -22663,7 +22671,7 @@
       </c>
       <c r="R70" s="77"/>
     </row>
-    <row r="71" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="73"/>
       <c r="B71" s="78"/>
       <c r="C71" s="79"/>
@@ -22694,7 +22702,7 @@
       </c>
       <c r="R71" s="77"/>
     </row>
-    <row r="72" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="73"/>
       <c r="B72" s="78"/>
       <c r="C72" s="79"/>
@@ -22725,7 +22733,7 @@
       </c>
       <c r="R72" s="77"/>
     </row>
-    <row r="73" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="73"/>
       <c r="B73" s="78"/>
       <c r="C73" s="79"/>
@@ -22756,7 +22764,7 @@
       </c>
       <c r="R73" s="77"/>
     </row>
-    <row r="74" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="73"/>
       <c r="B74" s="78"/>
       <c r="C74" s="79"/>
@@ -22787,7 +22795,7 @@
       </c>
       <c r="R74" s="77"/>
     </row>
-    <row r="75" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="73"/>
       <c r="B75" s="78"/>
       <c r="C75" s="79"/>
@@ -22818,7 +22826,7 @@
       </c>
       <c r="R75" s="77"/>
     </row>
-    <row r="76" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="73"/>
       <c r="B76" s="78"/>
       <c r="C76" s="79"/>
@@ -22849,7 +22857,7 @@
       </c>
       <c r="R76" s="77"/>
     </row>
-    <row r="77" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="73"/>
       <c r="B77" s="78"/>
       <c r="C77" s="79"/>
@@ -22880,7 +22888,7 @@
       </c>
       <c r="R77" s="77"/>
     </row>
-    <row r="78" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="73"/>
       <c r="B78" s="78"/>
       <c r="C78" s="79"/>
@@ -22911,7 +22919,7 @@
       </c>
       <c r="R78" s="77"/>
     </row>
-    <row r="79" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="73"/>
       <c r="B79" s="78"/>
       <c r="C79" s="79"/>
@@ -22942,7 +22950,7 @@
       </c>
       <c r="R79" s="77"/>
     </row>
-    <row r="80" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="73"/>
       <c r="B80" s="78"/>
       <c r="C80" s="79"/>
@@ -22973,7 +22981,7 @@
       </c>
       <c r="R80" s="77"/>
     </row>
-    <row r="81" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="73"/>
       <c r="B81" s="78"/>
       <c r="C81" s="79"/>
@@ -23004,7 +23012,7 @@
       </c>
       <c r="R81" s="77"/>
     </row>
-    <row r="82" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="73"/>
       <c r="B82" s="78"/>
       <c r="C82" s="79"/>
@@ -23035,7 +23043,7 @@
       </c>
       <c r="R82" s="77"/>
     </row>
-    <row r="83" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="73"/>
       <c r="B83" s="78"/>
       <c r="C83" s="79"/>
@@ -23066,7 +23074,7 @@
       </c>
       <c r="R83" s="77"/>
     </row>
-    <row r="84" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="73"/>
       <c r="B84" s="78"/>
       <c r="C84" s="79"/>
@@ -23097,7 +23105,7 @@
       </c>
       <c r="R84" s="77"/>
     </row>
-    <row r="85" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="73"/>
       <c r="B85" s="78"/>
       <c r="C85" s="79"/>
@@ -23128,7 +23136,7 @@
       </c>
       <c r="R85" s="77"/>
     </row>
-    <row r="86" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="73"/>
       <c r="B86" s="78"/>
       <c r="C86" s="79"/>
@@ -23159,7 +23167,7 @@
       </c>
       <c r="R86" s="77"/>
     </row>
-    <row r="87" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="73"/>
       <c r="B87" s="78"/>
       <c r="C87" s="79"/>
@@ -23190,7 +23198,7 @@
       </c>
       <c r="R87" s="77"/>
     </row>
-    <row r="88" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="73"/>
       <c r="B88" s="78"/>
       <c r="C88" s="79"/>
@@ -23221,7 +23229,7 @@
       </c>
       <c r="R88" s="77"/>
     </row>
-    <row r="89" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="73"/>
       <c r="B89" s="78"/>
       <c r="C89" s="79"/>
@@ -23252,7 +23260,7 @@
       </c>
       <c r="R89" s="77"/>
     </row>
-    <row r="90" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="73"/>
       <c r="B90" s="78"/>
       <c r="C90" s="79"/>
@@ -23283,7 +23291,7 @@
       </c>
       <c r="R90" s="77"/>
     </row>
-    <row r="91" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="73"/>
       <c r="B91" s="78"/>
       <c r="C91" s="79"/>
@@ -23314,7 +23322,7 @@
       </c>
       <c r="R91" s="77"/>
     </row>
-    <row r="92" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="73"/>
       <c r="B92" s="78"/>
       <c r="C92" s="79"/>
@@ -23345,7 +23353,7 @@
       </c>
       <c r="R92" s="77"/>
     </row>
-    <row r="93" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="73"/>
       <c r="B93" s="78"/>
       <c r="C93" s="79"/>
@@ -23376,7 +23384,7 @@
       </c>
       <c r="R93" s="77"/>
     </row>
-    <row r="94" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="73"/>
       <c r="B94" s="78"/>
       <c r="C94" s="79"/>
@@ -23407,7 +23415,7 @@
       </c>
       <c r="R94" s="77"/>
     </row>
-    <row r="95" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="73"/>
       <c r="B95" s="78"/>
       <c r="C95" s="79"/>
@@ -23438,7 +23446,7 @@
       </c>
       <c r="R95" s="77"/>
     </row>
-    <row r="96" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="73"/>
       <c r="B96" s="78"/>
       <c r="C96" s="79"/>
@@ -23469,7 +23477,7 @@
       </c>
       <c r="R96" s="77"/>
     </row>
-    <row r="97" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="73"/>
       <c r="B97" s="78"/>
       <c r="C97" s="79"/>
@@ -23500,7 +23508,7 @@
       </c>
       <c r="R97" s="77"/>
     </row>
-    <row r="98" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="73"/>
       <c r="B98" s="78"/>
       <c r="C98" s="79"/>
@@ -23531,7 +23539,7 @@
       </c>
       <c r="R98" s="77"/>
     </row>
-    <row r="99" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="73"/>
       <c r="B99" s="78"/>
       <c r="C99" s="79"/>
@@ -23562,7 +23570,7 @@
       </c>
       <c r="R99" s="77"/>
     </row>
-    <row r="100" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="73"/>
       <c r="B100" s="78"/>
       <c r="C100" s="79"/>
@@ -23593,7 +23601,7 @@
       </c>
       <c r="R100" s="77"/>
     </row>
-    <row r="101" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="73"/>
       <c r="B101" s="78"/>
       <c r="C101" s="79"/>
@@ -23624,7 +23632,7 @@
       </c>
       <c r="R101" s="77"/>
     </row>
-    <row r="102" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="73"/>
       <c r="B102" s="78"/>
       <c r="C102" s="79"/>
@@ -23655,7 +23663,7 @@
       </c>
       <c r="R102" s="77"/>
     </row>
-    <row r="103" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="73"/>
       <c r="B103" s="78"/>
       <c r="C103" s="79"/>
@@ -23686,7 +23694,7 @@
       </c>
       <c r="R103" s="77"/>
     </row>
-    <row r="104" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="73"/>
       <c r="B104" s="78"/>
       <c r="C104" s="79"/>
@@ -23717,7 +23725,7 @@
       </c>
       <c r="R104" s="77"/>
     </row>
-    <row r="105" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="73"/>
       <c r="B105" s="78"/>
       <c r="C105" s="79"/>
@@ -23748,7 +23756,7 @@
       </c>
       <c r="R105" s="77"/>
     </row>
-    <row r="106" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="73"/>
       <c r="B106" s="78"/>
       <c r="C106" s="79"/>
@@ -23779,7 +23787,7 @@
       </c>
       <c r="R106" s="77"/>
     </row>
-    <row r="107" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="73"/>
       <c r="B107" s="78"/>
       <c r="C107" s="79"/>
@@ -23810,7 +23818,7 @@
       </c>
       <c r="R107" s="77"/>
     </row>
-    <row r="108" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="73"/>
       <c r="B108" s="78"/>
       <c r="C108" s="79"/>
@@ -23841,7 +23849,7 @@
       </c>
       <c r="R108" s="77"/>
     </row>
-    <row r="109" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="73"/>
       <c r="B109" s="78"/>
       <c r="C109" s="79"/>
@@ -23872,7 +23880,7 @@
       </c>
       <c r="R109" s="77"/>
     </row>
-    <row r="110" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="73"/>
       <c r="B110" s="78"/>
       <c r="C110" s="79"/>
@@ -23903,7 +23911,7 @@
       </c>
       <c r="R110" s="77"/>
     </row>
-    <row r="111" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="73"/>
       <c r="B111" s="78"/>
       <c r="C111" s="79"/>
@@ -23934,7 +23942,7 @@
       </c>
       <c r="R111" s="77"/>
     </row>
-    <row r="112" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="73"/>
       <c r="B112" s="78"/>
       <c r="C112" s="79"/>
@@ -23965,7 +23973,7 @@
       </c>
       <c r="R112" s="77"/>
     </row>
-    <row r="113" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="73"/>
       <c r="B113" s="78"/>
       <c r="C113" s="79"/>
@@ -23996,7 +24004,7 @@
       </c>
       <c r="R113" s="77"/>
     </row>
-    <row r="114" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="73"/>
       <c r="B114" s="78"/>
       <c r="C114" s="79"/>
@@ -24027,7 +24035,7 @@
       </c>
       <c r="R114" s="77"/>
     </row>
-    <row r="115" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="73"/>
       <c r="B115" s="78"/>
       <c r="C115" s="79"/>
@@ -24058,7 +24066,7 @@
       </c>
       <c r="R115" s="77"/>
     </row>
-    <row r="116" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="73"/>
       <c r="B116" s="78"/>
       <c r="C116" s="79"/>
@@ -24089,7 +24097,7 @@
       </c>
       <c r="R116" s="77"/>
     </row>
-    <row r="117" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="73"/>
       <c r="B117" s="78"/>
       <c r="C117" s="79"/>
@@ -24120,7 +24128,7 @@
       </c>
       <c r="R117" s="77"/>
     </row>
-    <row r="118" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="73"/>
       <c r="B118" s="78"/>
       <c r="C118" s="79"/>
@@ -24151,7 +24159,7 @@
       </c>
       <c r="R118" s="77"/>
     </row>
-    <row r="119" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="73"/>
       <c r="B119" s="78"/>
       <c r="C119" s="79"/>
@@ -24182,7 +24190,7 @@
       </c>
       <c r="R119" s="77"/>
     </row>
-    <row r="120" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="73"/>
       <c r="B120" s="78"/>
       <c r="C120" s="79"/>
@@ -24213,7 +24221,7 @@
       </c>
       <c r="R120" s="77"/>
     </row>
-    <row r="121" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="73"/>
       <c r="B121" s="78"/>
       <c r="C121" s="79"/>
@@ -24244,7 +24252,7 @@
       </c>
       <c r="R121" s="77"/>
     </row>
-    <row r="122" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="73"/>
       <c r="B122" s="78"/>
       <c r="C122" s="79"/>
@@ -24275,7 +24283,7 @@
       </c>
       <c r="R122" s="77"/>
     </row>
-    <row r="123" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="73"/>
       <c r="B123" s="78"/>
       <c r="C123" s="79"/>
@@ -24306,7 +24314,7 @@
       </c>
       <c r="R123" s="77"/>
     </row>
-    <row r="124" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="73"/>
       <c r="B124" s="78"/>
       <c r="C124" s="79"/>
@@ -24337,7 +24345,7 @@
       </c>
       <c r="R124" s="77"/>
     </row>
-    <row r="125" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="73"/>
       <c r="B125" s="78"/>
       <c r="C125" s="79"/>
@@ -24368,7 +24376,7 @@
       </c>
       <c r="R125" s="77"/>
     </row>
-    <row r="126" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="73"/>
       <c r="B126" s="78"/>
       <c r="C126" s="79"/>
@@ -24399,7 +24407,7 @@
       </c>
       <c r="R126" s="77"/>
     </row>
-    <row r="127" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="73"/>
       <c r="B127" s="78"/>
       <c r="C127" s="79"/>
@@ -24430,7 +24438,7 @@
       </c>
       <c r="R127" s="77"/>
     </row>
-    <row r="128" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="73"/>
       <c r="B128" s="78"/>
       <c r="C128" s="79"/>
@@ -24461,7 +24469,7 @@
       </c>
       <c r="R128" s="77"/>
     </row>
-    <row r="129" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="73"/>
       <c r="B129" s="78"/>
       <c r="C129" s="79"/>
@@ -24492,7 +24500,7 @@
       </c>
       <c r="R129" s="77"/>
     </row>
-    <row r="130" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="73"/>
       <c r="B130" s="78"/>
       <c r="C130" s="79"/>
@@ -24523,7 +24531,7 @@
       </c>
       <c r="R130" s="77"/>
     </row>
-    <row r="131" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="73"/>
       <c r="B131" s="78"/>
       <c r="C131" s="79"/>
@@ -24554,7 +24562,7 @@
       </c>
       <c r="R131" s="77"/>
     </row>
-    <row r="132" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="73"/>
       <c r="B132" s="78"/>
       <c r="C132" s="79"/>
@@ -24585,7 +24593,7 @@
       </c>
       <c r="R132" s="77"/>
     </row>
-    <row r="133" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="73"/>
       <c r="B133" s="78"/>
       <c r="C133" s="79"/>
@@ -24616,7 +24624,7 @@
       </c>
       <c r="R133" s="77"/>
     </row>
-    <row r="134" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="73"/>
       <c r="B134" s="78"/>
       <c r="C134" s="79"/>
@@ -24647,7 +24655,7 @@
       </c>
       <c r="R134" s="77"/>
     </row>
-    <row r="135" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="73"/>
       <c r="B135" s="78"/>
       <c r="C135" s="79"/>
@@ -24678,7 +24686,7 @@
       </c>
       <c r="R135" s="77"/>
     </row>
-    <row r="136" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="73"/>
       <c r="B136" s="78"/>
       <c r="C136" s="79"/>
@@ -24709,7 +24717,7 @@
       </c>
       <c r="R136" s="77"/>
     </row>
-    <row r="137" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="73"/>
       <c r="B137" s="78"/>
       <c r="C137" s="79"/>
@@ -24740,7 +24748,7 @@
       </c>
       <c r="R137" s="77"/>
     </row>
-    <row r="138" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="73"/>
       <c r="B138" s="78"/>
       <c r="C138" s="79"/>
@@ -24771,7 +24779,7 @@
       </c>
       <c r="R138" s="77"/>
     </row>
-    <row r="139" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="73"/>
       <c r="B139" s="78"/>
       <c r="C139" s="79"/>
@@ -24802,7 +24810,7 @@
       </c>
       <c r="R139" s="77"/>
     </row>
-    <row r="140" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="73"/>
       <c r="B140" s="78"/>
       <c r="C140" s="79"/>
@@ -24833,7 +24841,7 @@
       </c>
       <c r="R140" s="77"/>
     </row>
-    <row r="141" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="73"/>
       <c r="B141" s="78"/>
       <c r="C141" s="79"/>
@@ -24864,7 +24872,7 @@
       </c>
       <c r="R141" s="77"/>
     </row>
-    <row r="142" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="73"/>
       <c r="B142" s="78"/>
       <c r="C142" s="79"/>
@@ -24895,7 +24903,7 @@
       </c>
       <c r="R142" s="77"/>
     </row>
-    <row r="143" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="73"/>
       <c r="B143" s="78"/>
       <c r="C143" s="79"/>
@@ -24926,7 +24934,7 @@
       </c>
       <c r="R143" s="77"/>
     </row>
-    <row r="144" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="73"/>
       <c r="B144" s="78"/>
       <c r="C144" s="79"/>
@@ -24957,7 +24965,7 @@
       </c>
       <c r="R144" s="77"/>
     </row>
-    <row r="145" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="73"/>
       <c r="B145" s="78"/>
       <c r="C145" s="79"/>
@@ -24988,7 +24996,7 @@
       </c>
       <c r="R145" s="77"/>
     </row>
-    <row r="146" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="73"/>
       <c r="B146" s="78"/>
       <c r="C146" s="79"/>
@@ -25019,7 +25027,7 @@
       </c>
       <c r="R146" s="77"/>
     </row>
-    <row r="147" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="73"/>
       <c r="B147" s="78"/>
       <c r="C147" s="79"/>
@@ -25050,7 +25058,7 @@
       </c>
       <c r="R147" s="77"/>
     </row>
-    <row r="148" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="73"/>
       <c r="B148" s="78"/>
       <c r="C148" s="79"/>
@@ -25081,7 +25089,7 @@
       </c>
       <c r="R148" s="77"/>
     </row>
-    <row r="149" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="73"/>
       <c r="B149" s="78"/>
       <c r="C149" s="79"/>
@@ -25112,7 +25120,7 @@
       </c>
       <c r="R149" s="77"/>
     </row>
-    <row r="150" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="73"/>
       <c r="B150" s="78"/>
       <c r="C150" s="79"/>
@@ -25143,7 +25151,7 @@
       </c>
       <c r="R150" s="77"/>
     </row>
-    <row r="151" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" s="22" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="73"/>
       <c r="B151" s="78"/>
       <c r="C151" s="79"/>
@@ -25174,7 +25182,7 @@
       </c>
       <c r="R151" s="77"/>
     </row>
-    <row r="152" spans="1:18" s="22" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="80"/>
       <c r="B152" s="81"/>
       <c r="C152" s="82"/>
@@ -25211,26 +25219,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06AFEA63-4C10-49A8-8C0B-19332B34DB8D}">
   <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.54296875" style="85" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="22" customWidth="1"/>
     <col min="6" max="6" width="26" style="22" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.54296875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="17.54296875" style="100" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="22"/>
+    <col min="7" max="7" width="17.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.5703125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="100" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>284</v>
       </c>
@@ -25258,37 +25266,37 @@
       <c r="W1" s="93"/>
       <c r="X1" s="93"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="192" t="s">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="189" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="192" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="189" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="194"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="191"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="73"/>
       <c r="B3" s="74"/>
       <c r="C3" s="95"/>
@@ -25314,7 +25322,7 @@
       <c r="W3" s="74"/>
       <c r="X3" s="77"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="73"/>
       <c r="B4" s="74"/>
       <c r="C4" s="95"/>
@@ -25340,7 +25348,7 @@
       <c r="W4" s="74"/>
       <c r="X4" s="77"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="73"/>
       <c r="B5" s="74"/>
       <c r="C5" s="95"/>
@@ -25366,7 +25374,7 @@
       <c r="W5" s="74"/>
       <c r="X5" s="77"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="73"/>
       <c r="B6" s="74"/>
       <c r="C6" s="95"/>
@@ -25392,7 +25400,7 @@
       <c r="W6" s="74"/>
       <c r="X6" s="77"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="73"/>
       <c r="B7" s="74"/>
       <c r="C7" s="95"/>
@@ -25418,7 +25426,7 @@
       <c r="W7" s="74"/>
       <c r="X7" s="77"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="73"/>
       <c r="B8" s="74"/>
       <c r="C8" s="95"/>
@@ -25444,7 +25452,7 @@
       <c r="W8" s="74"/>
       <c r="X8" s="77"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
       <c r="B9" s="74"/>
       <c r="C9" s="95"/>
@@ -25470,7 +25478,7 @@
       <c r="W9" s="74"/>
       <c r="X9" s="77"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="73"/>
       <c r="B10" s="74"/>
       <c r="C10" s="95"/>
@@ -25496,7 +25504,7 @@
       <c r="W10" s="74"/>
       <c r="X10" s="77"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="73"/>
       <c r="B11" s="74"/>
       <c r="C11" s="95"/>
@@ -25522,7 +25530,7 @@
       <c r="W11" s="74"/>
       <c r="X11" s="77"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="73"/>
       <c r="B12" s="74"/>
       <c r="C12" s="95"/>
@@ -25548,7 +25556,7 @@
       <c r="W12" s="74"/>
       <c r="X12" s="77"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
       <c r="B13" s="74"/>
       <c r="C13" s="95"/>
@@ -25574,7 +25582,7 @@
       <c r="W13" s="74"/>
       <c r="X13" s="77"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="73"/>
       <c r="B14" s="74"/>
       <c r="C14" s="95"/>
@@ -25600,7 +25608,7 @@
       <c r="W14" s="74"/>
       <c r="X14" s="77"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="73"/>
       <c r="B15" s="74"/>
       <c r="C15" s="95"/>
@@ -25626,7 +25634,7 @@
       <c r="W15" s="74"/>
       <c r="X15" s="77"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="73"/>
       <c r="B16" s="74"/>
       <c r="C16" s="95"/>
@@ -25652,7 +25660,7 @@
       <c r="W16" s="74"/>
       <c r="X16" s="77"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="73"/>
       <c r="B17" s="74"/>
       <c r="C17" s="95"/>
@@ -25678,7 +25686,7 @@
       <c r="W17" s="74"/>
       <c r="X17" s="77"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="73"/>
       <c r="B18" s="74"/>
       <c r="C18" s="95"/>
@@ -25704,7 +25712,7 @@
       <c r="W18" s="74"/>
       <c r="X18" s="77"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="73"/>
       <c r="B19" s="74"/>
       <c r="C19" s="95"/>
@@ -25730,7 +25738,7 @@
       <c r="W19" s="74"/>
       <c r="X19" s="77"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="73"/>
       <c r="B20" s="74"/>
       <c r="C20" s="95"/>
@@ -25756,7 +25764,7 @@
       <c r="W20" s="74"/>
       <c r="X20" s="77"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="95"/>
@@ -25782,7 +25790,7 @@
       <c r="W21" s="74"/>
       <c r="X21" s="77"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="73"/>
       <c r="B22" s="74"/>
       <c r="C22" s="95"/>
@@ -25808,7 +25816,7 @@
       <c r="W22" s="74"/>
       <c r="X22" s="77"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="73"/>
       <c r="B23" s="74"/>
       <c r="C23" s="95"/>
@@ -25834,7 +25842,7 @@
       <c r="W23" s="74"/>
       <c r="X23" s="77"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="73"/>
       <c r="B24" s="74"/>
       <c r="C24" s="95"/>
@@ -25860,7 +25868,7 @@
       <c r="W24" s="74"/>
       <c r="X24" s="77"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="73"/>
       <c r="B25" s="74"/>
       <c r="C25" s="95"/>
@@ -25886,7 +25894,7 @@
       <c r="W25" s="74"/>
       <c r="X25" s="77"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="73"/>
       <c r="B26" s="74"/>
       <c r="C26" s="95"/>
@@ -25912,7 +25920,7 @@
       <c r="W26" s="74"/>
       <c r="X26" s="77"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="73"/>
       <c r="B27" s="74"/>
       <c r="C27" s="95"/>
@@ -25938,7 +25946,7 @@
       <c r="W27" s="74"/>
       <c r="X27" s="77"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="73"/>
       <c r="B28" s="74"/>
       <c r="C28" s="95"/>
@@ -25964,7 +25972,7 @@
       <c r="W28" s="74"/>
       <c r="X28" s="77"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="73"/>
       <c r="B29" s="74"/>
       <c r="C29" s="95"/>
@@ -25990,7 +25998,7 @@
       <c r="W29" s="74"/>
       <c r="X29" s="77"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="73"/>
       <c r="B30" s="74"/>
       <c r="C30" s="95"/>
@@ -26016,7 +26024,7 @@
       <c r="W30" s="74"/>
       <c r="X30" s="77"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="73"/>
       <c r="B31" s="74"/>
       <c r="C31" s="95"/>
@@ -26042,7 +26050,7 @@
       <c r="W31" s="74"/>
       <c r="X31" s="77"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="73"/>
       <c r="B32" s="74"/>
       <c r="C32" s="95"/>
@@ -26068,7 +26076,7 @@
       <c r="W32" s="74"/>
       <c r="X32" s="77"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="73"/>
       <c r="B33" s="74"/>
       <c r="C33" s="95"/>
@@ -26094,7 +26102,7 @@
       <c r="W33" s="74"/>
       <c r="X33" s="77"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="73"/>
       <c r="B34" s="74"/>
       <c r="C34" s="95"/>
@@ -26120,7 +26128,7 @@
       <c r="W34" s="74"/>
       <c r="X34" s="77"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="73"/>
       <c r="B35" s="74"/>
       <c r="C35" s="95"/>
@@ -26146,7 +26154,7 @@
       <c r="W35" s="74"/>
       <c r="X35" s="77"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="73"/>
       <c r="B36" s="74"/>
       <c r="C36" s="95"/>
@@ -26172,7 +26180,7 @@
       <c r="W36" s="74"/>
       <c r="X36" s="77"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="73"/>
       <c r="B37" s="74"/>
       <c r="C37" s="95"/>
@@ -26198,7 +26206,7 @@
       <c r="W37" s="74"/>
       <c r="X37" s="77"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="73"/>
       <c r="B38" s="74"/>
       <c r="C38" s="95"/>
@@ -26224,7 +26232,7 @@
       <c r="W38" s="74"/>
       <c r="X38" s="77"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="73"/>
       <c r="B39" s="74"/>
       <c r="C39" s="95"/>
@@ -26250,7 +26258,7 @@
       <c r="W39" s="74"/>
       <c r="X39" s="77"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="73"/>
       <c r="B40" s="74"/>
       <c r="C40" s="95"/>
@@ -26276,7 +26284,7 @@
       <c r="W40" s="74"/>
       <c r="X40" s="77"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="73"/>
       <c r="B41" s="74"/>
       <c r="C41" s="95"/>
@@ -26302,7 +26310,7 @@
       <c r="W41" s="74"/>
       <c r="X41" s="77"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="73"/>
       <c r="B42" s="74"/>
       <c r="C42" s="95"/>
@@ -26328,7 +26336,7 @@
       <c r="W42" s="74"/>
       <c r="X42" s="77"/>
     </row>
-    <row r="43" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="80"/>
       <c r="B43" s="83"/>
       <c r="C43" s="96"/>
@@ -26354,28 +26362,28 @@
       <c r="W43" s="83"/>
       <c r="X43" s="84"/>
     </row>
-    <row r="44" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="189" t="s">
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="186" t="s">
         <v>319</v>
       </c>
-      <c r="B45" s="190"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="190"/>
-      <c r="J45" s="190"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="190"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="190"/>
-      <c r="O45" s="190"/>
-      <c r="P45" s="190"/>
-      <c r="Q45" s="190"/>
-      <c r="R45" s="191"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="187"/>
+      <c r="N45" s="187"/>
+      <c r="O45" s="187"/>
+      <c r="P45" s="187"/>
+      <c r="Q45" s="187"/>
+      <c r="R45" s="188"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="22"/>
@@ -26385,7 +26393,7 @@
       <c r="Y45" s="22"/>
       <c r="Z45" s="22"/>
     </row>
-    <row r="46" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="91"/>
       <c r="B46" s="92"/>
       <c r="C46" s="92"/>
@@ -26405,7 +26413,7 @@
       <c r="Q46" s="92"/>
       <c r="R46" s="105"/>
     </row>
-    <row r="47" spans="1:26" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="91" t="s">
         <v>144</v>
       </c>
@@ -26453,7 +26461,7 @@
       <c r="Q47" s="92"/>
       <c r="R47" s="105"/>
     </row>
-    <row r="48" spans="1:26" ht="28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="91" t="str">
         <f t="shared" ref="A48:A53" si="0">_xlfn.TEXTBEFORE(B48,"(")</f>
         <v xml:space="preserve">GOVERN </v>
@@ -26509,7 +26517,7 @@
       <c r="Q48" s="92"/>
       <c r="R48" s="105"/>
     </row>
-    <row r="49" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">IDENTIFY </v>
@@ -26562,7 +26570,7 @@
       <c r="Q49" s="92"/>
       <c r="R49" s="105"/>
     </row>
-    <row r="50" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">PROTECT </v>
@@ -26615,7 +26623,7 @@
       <c r="Q50" s="92"/>
       <c r="R50" s="105"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">DETECT </v>
@@ -26668,7 +26676,7 @@
       <c r="Q51" s="92"/>
       <c r="R51" s="105"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RESPOND </v>
@@ -26721,7 +26729,7 @@
       <c r="Q52" s="92"/>
       <c r="R52" s="105"/>
     </row>
-    <row r="53" spans="1:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="91" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">RECOVER </v>
@@ -26774,7 +26782,7 @@
       <c r="Q53" s="92"/>
       <c r="R53" s="105"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="91"/>
       <c r="B54" s="74"/>
       <c r="C54" s="95"/>
@@ -26813,7 +26821,7 @@
       <c r="Q54" s="92"/>
       <c r="R54" s="105"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="91"/>
       <c r="B55" s="74"/>
       <c r="C55" s="95"/>
@@ -26852,7 +26860,7 @@
       <c r="Q55" s="92"/>
       <c r="R55" s="105"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="91"/>
       <c r="B56" s="74"/>
       <c r="C56" s="95"/>
@@ -26891,7 +26899,7 @@
       <c r="Q56" s="92"/>
       <c r="R56" s="105"/>
     </row>
-    <row r="57" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="91"/>
       <c r="B57" s="74"/>
       <c r="C57" s="95"/>
@@ -26930,7 +26938,7 @@
       <c r="Q57" s="92"/>
       <c r="R57" s="105"/>
     </row>
-    <row r="58" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="91"/>
       <c r="B58" s="74"/>
       <c r="C58" s="95"/>
@@ -26969,7 +26977,7 @@
       <c r="Q58" s="92"/>
       <c r="R58" s="105"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="91"/>
       <c r="B59" s="74"/>
       <c r="C59" s="95"/>
@@ -27008,7 +27016,7 @@
       <c r="Q59" s="92"/>
       <c r="R59" s="105"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="91"/>
       <c r="B60" s="74"/>
       <c r="C60" s="95"/>
@@ -27047,7 +27055,7 @@
       <c r="Q60" s="92"/>
       <c r="R60" s="105"/>
     </row>
-    <row r="61" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="91"/>
       <c r="B61" s="74"/>
       <c r="C61" s="95"/>
@@ -27086,7 +27094,7 @@
       <c r="Q61" s="92"/>
       <c r="R61" s="105"/>
     </row>
-    <row r="62" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="91"/>
       <c r="B62" s="74"/>
       <c r="C62" s="95"/>
@@ -27125,7 +27133,7 @@
       <c r="Q62" s="92"/>
       <c r="R62" s="105"/>
     </row>
-    <row r="63" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="91"/>
       <c r="B63" s="74"/>
       <c r="C63" s="95"/>
@@ -27164,7 +27172,7 @@
       <c r="Q63" s="92"/>
       <c r="R63" s="105"/>
     </row>
-    <row r="64" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="91"/>
       <c r="B64" s="74"/>
       <c r="C64" s="95"/>
@@ -27203,7 +27211,7 @@
       <c r="Q64" s="92"/>
       <c r="R64" s="105"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="91"/>
       <c r="B65" s="74"/>
       <c r="C65" s="95"/>
@@ -27242,7 +27250,7 @@
       <c r="Q65" s="92"/>
       <c r="R65" s="105"/>
     </row>
-    <row r="66" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="91"/>
       <c r="B66" s="74"/>
       <c r="C66" s="95"/>
@@ -27281,7 +27289,7 @@
       <c r="Q66" s="92"/>
       <c r="R66" s="105"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="91"/>
       <c r="B67" s="74"/>
       <c r="C67" s="95"/>
@@ -27320,7 +27328,7 @@
       <c r="Q67" s="92"/>
       <c r="R67" s="105"/>
     </row>
-    <row r="68" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="91"/>
       <c r="B68" s="74"/>
       <c r="C68" s="95"/>
@@ -27359,7 +27367,7 @@
       <c r="Q68" s="92"/>
       <c r="R68" s="105"/>
     </row>
-    <row r="69" spans="1:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="91"/>
       <c r="B69" s="74"/>
       <c r="C69" s="95"/>
@@ -27398,7 +27406,7 @@
       <c r="Q69" s="92"/>
       <c r="R69" s="105"/>
     </row>
-    <row r="70" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="91"/>
       <c r="B70" s="74"/>
       <c r="C70" s="95"/>
@@ -27426,7 +27434,7 @@
       <c r="Q70" s="92"/>
       <c r="R70" s="105"/>
     </row>
-    <row r="71" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="91"/>
       <c r="B71" s="74"/>
       <c r="C71" s="95"/>
@@ -27454,7 +27462,7 @@
       <c r="Q71" s="92"/>
       <c r="R71" s="105"/>
     </row>
-    <row r="72" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="91"/>
       <c r="B72" s="74"/>
       <c r="C72" s="95"/>
@@ -27482,7 +27490,7 @@
       <c r="Q72" s="92"/>
       <c r="R72" s="105"/>
     </row>
-    <row r="73" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="91"/>
       <c r="B73" s="74"/>
       <c r="C73" s="95"/>
@@ -27510,7 +27518,7 @@
       <c r="Q73" s="92"/>
       <c r="R73" s="105"/>
     </row>
-    <row r="74" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="91"/>
       <c r="B74" s="74"/>
       <c r="C74" s="95"/>
@@ -27538,7 +27546,7 @@
       <c r="Q74" s="92"/>
       <c r="R74" s="105"/>
     </row>
-    <row r="75" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="91"/>
       <c r="B75" s="74"/>
       <c r="C75" s="95"/>
@@ -27566,7 +27574,7 @@
       <c r="Q75" s="92"/>
       <c r="R75" s="105"/>
     </row>
-    <row r="76" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="91"/>
       <c r="B76" s="74"/>
       <c r="C76" s="95"/>
@@ -27594,7 +27602,7 @@
       <c r="Q76" s="92"/>
       <c r="R76" s="105"/>
     </row>
-    <row r="77" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="91"/>
       <c r="B77" s="74"/>
       <c r="C77" s="95"/>
@@ -27622,7 +27630,7 @@
       <c r="Q77" s="92"/>
       <c r="R77" s="105"/>
     </row>
-    <row r="78" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="91"/>
       <c r="B78" s="74"/>
       <c r="C78" s="95"/>
@@ -27650,7 +27658,7 @@
       <c r="Q78" s="92"/>
       <c r="R78" s="105"/>
     </row>
-    <row r="79" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="91"/>
       <c r="B79" s="74"/>
       <c r="C79" s="95"/>
@@ -27678,7 +27686,7 @@
       <c r="Q79" s="92"/>
       <c r="R79" s="105"/>
     </row>
-    <row r="80" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="91"/>
       <c r="B80" s="74"/>
       <c r="C80" s="95"/>
@@ -27706,7 +27714,7 @@
       <c r="Q80" s="92"/>
       <c r="R80" s="105"/>
     </row>
-    <row r="81" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="91"/>
       <c r="B81" s="74"/>
       <c r="C81" s="95"/>
@@ -27734,7 +27742,7 @@
       <c r="Q81" s="92"/>
       <c r="R81" s="105"/>
     </row>
-    <row r="82" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="91"/>
       <c r="B82" s="74"/>
       <c r="C82" s="95"/>
@@ -27762,7 +27770,7 @@
       <c r="Q82" s="92"/>
       <c r="R82" s="105"/>
     </row>
-    <row r="83" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A83" s="91"/>
       <c r="B83" s="74"/>
       <c r="C83" s="95"/>
@@ -27790,7 +27798,7 @@
       <c r="Q83" s="92"/>
       <c r="R83" s="105"/>
     </row>
-    <row r="84" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="91"/>
       <c r="B84" s="74"/>
       <c r="C84" s="95"/>
@@ -27818,7 +27826,7 @@
       <c r="Q84" s="92"/>
       <c r="R84" s="105"/>
     </row>
-    <row r="85" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="91"/>
       <c r="B85" s="74"/>
       <c r="C85" s="95"/>
@@ -27846,7 +27854,7 @@
       <c r="Q85" s="92"/>
       <c r="R85" s="105"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="91"/>
       <c r="B86" s="74"/>
       <c r="C86" s="95"/>
@@ -27874,7 +27882,7 @@
       <c r="Q86" s="92"/>
       <c r="R86" s="105"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="91"/>
       <c r="B87" s="74"/>
       <c r="C87" s="95"/>
@@ -27902,7 +27910,7 @@
       <c r="Q87" s="92"/>
       <c r="R87" s="105"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="91"/>
       <c r="B88" s="74"/>
       <c r="C88" s="95"/>
@@ -27930,7 +27938,7 @@
       <c r="Q88" s="92"/>
       <c r="R88" s="105"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="91"/>
       <c r="B89" s="74"/>
       <c r="C89" s="95"/>
@@ -27958,7 +27966,7 @@
       <c r="Q89" s="92"/>
       <c r="R89" s="105"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="91"/>
       <c r="B90" s="74"/>
       <c r="C90" s="95"/>
@@ -27986,7 +27994,7 @@
       <c r="Q90" s="92"/>
       <c r="R90" s="105"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="91"/>
       <c r="B91" s="74"/>
       <c r="C91" s="95"/>
@@ -28014,7 +28022,7 @@
       <c r="Q91" s="92"/>
       <c r="R91" s="105"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="91"/>
       <c r="B92" s="74"/>
       <c r="C92" s="95"/>
@@ -28042,7 +28050,7 @@
       <c r="Q92" s="92"/>
       <c r="R92" s="105"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="91"/>
       <c r="B93" s="74"/>
       <c r="C93" s="95"/>
@@ -28070,7 +28078,7 @@
       <c r="Q93" s="92"/>
       <c r="R93" s="105"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="91"/>
       <c r="B94" s="74"/>
       <c r="C94" s="95"/>
@@ -28098,7 +28106,7 @@
       <c r="Q94" s="92"/>
       <c r="R94" s="105"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="91"/>
       <c r="B95" s="74"/>
       <c r="C95" s="95"/>
@@ -28126,7 +28134,7 @@
       <c r="Q95" s="92"/>
       <c r="R95" s="105"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="91"/>
       <c r="B96" s="74"/>
       <c r="C96" s="95"/>
@@ -28154,7 +28162,7 @@
       <c r="Q96" s="92"/>
       <c r="R96" s="105"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="91"/>
       <c r="B97" s="74"/>
       <c r="C97" s="95"/>
@@ -28182,7 +28190,7 @@
       <c r="Q97" s="92"/>
       <c r="R97" s="105"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="91"/>
       <c r="B98" s="74"/>
       <c r="C98" s="95"/>
@@ -28210,7 +28218,7 @@
       <c r="Q98" s="92"/>
       <c r="R98" s="105"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="91"/>
       <c r="B99" s="74"/>
       <c r="C99" s="95"/>
@@ -28238,7 +28246,7 @@
       <c r="Q99" s="92"/>
       <c r="R99" s="105"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="91"/>
       <c r="B100" s="74"/>
       <c r="C100" s="95"/>
@@ -28266,7 +28274,7 @@
       <c r="Q100" s="92"/>
       <c r="R100" s="105"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="91"/>
       <c r="B101" s="74"/>
       <c r="C101" s="95"/>
@@ -28294,7 +28302,7 @@
       <c r="Q101" s="92"/>
       <c r="R101" s="105"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="91"/>
       <c r="B102" s="74"/>
       <c r="C102" s="95"/>
@@ -28322,7 +28330,7 @@
       <c r="Q102" s="92"/>
       <c r="R102" s="105"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="91"/>
       <c r="B103" s="74"/>
       <c r="C103" s="95"/>
@@ -28350,7 +28358,7 @@
       <c r="Q103" s="92"/>
       <c r="R103" s="105"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="91"/>
       <c r="B104" s="74"/>
       <c r="C104" s="95"/>
@@ -28378,7 +28386,7 @@
       <c r="Q104" s="92"/>
       <c r="R104" s="105"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="91"/>
       <c r="B105" s="74"/>
       <c r="C105" s="95"/>
@@ -28406,7 +28414,7 @@
       <c r="Q105" s="92"/>
       <c r="R105" s="105"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="91"/>
       <c r="B106" s="74"/>
       <c r="C106" s="95"/>
@@ -28434,7 +28442,7 @@
       <c r="Q106" s="92"/>
       <c r="R106" s="105"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="91"/>
       <c r="B107" s="74"/>
       <c r="C107" s="95"/>
@@ -28462,7 +28470,7 @@
       <c r="Q107" s="92"/>
       <c r="R107" s="105"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="91"/>
       <c r="B108" s="74"/>
       <c r="C108" s="95"/>
@@ -28490,7 +28498,7 @@
       <c r="Q108" s="92"/>
       <c r="R108" s="105"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="91"/>
       <c r="B109" s="74"/>
       <c r="C109" s="95"/>
@@ -28518,7 +28526,7 @@
       <c r="Q109" s="92"/>
       <c r="R109" s="105"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="91"/>
       <c r="B110" s="74"/>
       <c r="C110" s="95"/>
@@ -28546,7 +28554,7 @@
       <c r="Q110" s="92"/>
       <c r="R110" s="105"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="91"/>
       <c r="B111" s="74"/>
       <c r="C111" s="95"/>
@@ -28574,7 +28582,7 @@
       <c r="Q111" s="92"/>
       <c r="R111" s="105"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="91"/>
       <c r="B112" s="74"/>
       <c r="C112" s="95"/>
@@ -28602,7 +28610,7 @@
       <c r="Q112" s="92"/>
       <c r="R112" s="105"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="91"/>
       <c r="B113" s="74"/>
       <c r="C113" s="95"/>
@@ -28630,7 +28638,7 @@
       <c r="Q113" s="92"/>
       <c r="R113" s="105"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="91"/>
       <c r="B114" s="74"/>
       <c r="C114" s="95"/>
@@ -28658,7 +28666,7 @@
       <c r="Q114" s="92"/>
       <c r="R114" s="105"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="91"/>
       <c r="B115" s="74"/>
       <c r="C115" s="95"/>
@@ -28686,7 +28694,7 @@
       <c r="Q115" s="92"/>
       <c r="R115" s="105"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="91"/>
       <c r="B116" s="74"/>
       <c r="C116" s="95"/>
@@ -28714,7 +28722,7 @@
       <c r="Q116" s="92"/>
       <c r="R116" s="105"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="91"/>
       <c r="B117" s="74"/>
       <c r="C117" s="95"/>
@@ -28742,7 +28750,7 @@
       <c r="Q117" s="92"/>
       <c r="R117" s="105"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="91"/>
       <c r="B118" s="74"/>
       <c r="C118" s="95"/>
@@ -28770,7 +28778,7 @@
       <c r="Q118" s="92"/>
       <c r="R118" s="105"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="91"/>
       <c r="B119" s="74"/>
       <c r="C119" s="95"/>
@@ -28798,7 +28806,7 @@
       <c r="Q119" s="92"/>
       <c r="R119" s="105"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="91"/>
       <c r="B120" s="74"/>
       <c r="C120" s="95"/>
@@ -28826,7 +28834,7 @@
       <c r="Q120" s="92"/>
       <c r="R120" s="105"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="91"/>
       <c r="B121" s="74"/>
       <c r="C121" s="95"/>
@@ -28854,7 +28862,7 @@
       <c r="Q121" s="92"/>
       <c r="R121" s="105"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="91"/>
       <c r="B122" s="74"/>
       <c r="C122" s="95"/>
@@ -28882,7 +28890,7 @@
       <c r="Q122" s="92"/>
       <c r="R122" s="105"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="91"/>
       <c r="B123" s="74"/>
       <c r="C123" s="95"/>
@@ -28910,7 +28918,7 @@
       <c r="Q123" s="92"/>
       <c r="R123" s="105"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="91"/>
       <c r="B124" s="74"/>
       <c r="C124" s="95"/>
@@ -28938,7 +28946,7 @@
       <c r="Q124" s="92"/>
       <c r="R124" s="105"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="91"/>
       <c r="B125" s="74"/>
       <c r="C125" s="95"/>
@@ -28966,7 +28974,7 @@
       <c r="Q125" s="92"/>
       <c r="R125" s="105"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="91"/>
       <c r="B126" s="74"/>
       <c r="C126" s="95"/>
@@ -28994,7 +29002,7 @@
       <c r="Q126" s="92"/>
       <c r="R126" s="105"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="91"/>
       <c r="B127" s="74"/>
       <c r="C127" s="95"/>
@@ -29022,7 +29030,7 @@
       <c r="Q127" s="92"/>
       <c r="R127" s="105"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="91"/>
       <c r="B128" s="74"/>
       <c r="C128" s="95"/>
@@ -29050,7 +29058,7 @@
       <c r="Q128" s="92"/>
       <c r="R128" s="105"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="91"/>
       <c r="B129" s="74"/>
       <c r="C129" s="95"/>
@@ -29078,7 +29086,7 @@
       <c r="Q129" s="92"/>
       <c r="R129" s="105"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="91"/>
       <c r="B130" s="74"/>
       <c r="C130" s="95"/>
@@ -29106,7 +29114,7 @@
       <c r="Q130" s="92"/>
       <c r="R130" s="105"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="91"/>
       <c r="B131" s="74"/>
       <c r="C131" s="95"/>
@@ -29134,7 +29142,7 @@
       <c r="Q131" s="92"/>
       <c r="R131" s="105"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="91"/>
       <c r="B132" s="74"/>
       <c r="C132" s="95"/>
@@ -29162,7 +29170,7 @@
       <c r="Q132" s="92"/>
       <c r="R132" s="105"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="91"/>
       <c r="B133" s="74"/>
       <c r="C133" s="95"/>
@@ -29190,7 +29198,7 @@
       <c r="Q133" s="92"/>
       <c r="R133" s="105"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="91"/>
       <c r="B134" s="74"/>
       <c r="C134" s="95"/>
@@ -29218,7 +29226,7 @@
       <c r="Q134" s="92"/>
       <c r="R134" s="105"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="91"/>
       <c r="B135" s="74"/>
       <c r="C135" s="95"/>
@@ -29246,7 +29254,7 @@
       <c r="Q135" s="92"/>
       <c r="R135" s="105"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="91"/>
       <c r="B136" s="74"/>
       <c r="C136" s="95"/>
@@ -29274,7 +29282,7 @@
       <c r="Q136" s="92"/>
       <c r="R136" s="105"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="91"/>
       <c r="B137" s="74"/>
       <c r="C137" s="95"/>
@@ -29302,7 +29310,7 @@
       <c r="Q137" s="92"/>
       <c r="R137" s="105"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="91"/>
       <c r="B138" s="74"/>
       <c r="C138" s="95"/>
@@ -29330,7 +29338,7 @@
       <c r="Q138" s="92"/>
       <c r="R138" s="105"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="91"/>
       <c r="B139" s="74"/>
       <c r="C139" s="95"/>
@@ -29358,7 +29366,7 @@
       <c r="Q139" s="92"/>
       <c r="R139" s="105"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="91"/>
       <c r="B140" s="74"/>
       <c r="C140" s="95"/>
@@ -29386,7 +29394,7 @@
       <c r="Q140" s="92"/>
       <c r="R140" s="105"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="91"/>
       <c r="B141" s="74"/>
       <c r="C141" s="95"/>
@@ -29414,7 +29422,7 @@
       <c r="Q141" s="92"/>
       <c r="R141" s="105"/>
     </row>
-    <row r="142" spans="1:18" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="91"/>
       <c r="B142" s="74"/>
       <c r="C142" s="95"/>
@@ -29442,7 +29450,7 @@
       <c r="Q142" s="92"/>
       <c r="R142" s="105"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="91"/>
       <c r="B143" s="74"/>
       <c r="C143" s="95"/>
@@ -29470,7 +29478,7 @@
       <c r="Q143" s="92"/>
       <c r="R143" s="105"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="91"/>
       <c r="B144" s="74"/>
       <c r="C144" s="95"/>
@@ -29498,7 +29506,7 @@
       <c r="Q144" s="92"/>
       <c r="R144" s="105"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="91"/>
       <c r="B145" s="74"/>
       <c r="C145" s="95"/>
@@ -29526,7 +29534,7 @@
       <c r="Q145" s="92"/>
       <c r="R145" s="105"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="91"/>
       <c r="B146" s="74"/>
       <c r="C146" s="95"/>
@@ -29554,7 +29562,7 @@
       <c r="Q146" s="92"/>
       <c r="R146" s="105"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="91"/>
       <c r="B147" s="74"/>
       <c r="C147" s="95"/>
@@ -29582,7 +29590,7 @@
       <c r="Q147" s="92"/>
       <c r="R147" s="105"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="91"/>
       <c r="B148" s="74"/>
       <c r="C148" s="95"/>
@@ -29610,7 +29618,7 @@
       <c r="Q148" s="92"/>
       <c r="R148" s="105"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="91"/>
       <c r="B149" s="74"/>
       <c r="C149" s="95"/>
@@ -29638,7 +29646,7 @@
       <c r="Q149" s="92"/>
       <c r="R149" s="105"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="91"/>
       <c r="B150" s="74"/>
       <c r="C150" s="95"/>
@@ -29666,7 +29674,7 @@
       <c r="Q150" s="92"/>
       <c r="R150" s="105"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="91"/>
       <c r="B151" s="74"/>
       <c r="C151" s="95"/>
@@ -29694,7 +29702,7 @@
       <c r="Q151" s="92"/>
       <c r="R151" s="105"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="91"/>
       <c r="B152" s="74"/>
       <c r="C152" s="95"/>
@@ -29722,7 +29730,7 @@
       <c r="Q152" s="92"/>
       <c r="R152" s="105"/>
     </row>
-    <row r="153" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="91"/>
       <c r="B153" s="74"/>
       <c r="C153" s="95"/>
@@ -29750,7 +29758,7 @@
       <c r="Q153" s="92"/>
       <c r="R153" s="105"/>
     </row>
-    <row r="154" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="107"/>
       <c r="B154" s="83"/>
       <c r="C154" s="96"/>
@@ -29792,14 +29800,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.1796875" style="2" customWidth="1"/>
-    <col min="2" max="11" width="8.7265625" style="2"/>
-    <col min="13" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="71.140625" style="2" customWidth="1"/>
+    <col min="2" max="11" width="8.7109375" style="2"/>
+    <col min="13" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>140</v>
       </c>
@@ -29816,7 +29824,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -29856,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="102" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="102" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -29896,7 +29904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
@@ -29936,7 +29944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -29973,7 +29981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
@@ -30013,7 +30021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -30043,7 +30051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
@@ -30055,7 +30063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="87.65" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="87.6" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -30070,7 +30078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
@@ -30082,7 +30090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
@@ -30094,7 +30102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
@@ -30106,7 +30114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
@@ -30118,7 +30126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
@@ -30130,7 +30138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -30142,7 +30150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -30151,7 +30159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -30160,7 +30168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -30169,7 +30177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
@@ -30178,7 +30186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
@@ -30187,7 +30195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
@@ -30196,7 +30204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
@@ -30205,7 +30213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
@@ -30214,7 +30222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
@@ -30223,7 +30231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
@@ -30232,7 +30240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
@@ -30241,7 +30249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
@@ -30250,7 +30258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
@@ -30259,7 +30267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>27</v>
       </c>
@@ -30268,7 +30276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
@@ -30277,7 +30285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
@@ -30286,7 +30294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -30295,7 +30303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
@@ -30304,7 +30312,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
@@ -30313,7 +30321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
@@ -30322,7 +30330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
@@ -30331,7 +30339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
@@ -30340,7 +30348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
@@ -30349,7 +30357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
@@ -30358,7 +30366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -30371,7 +30379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -30380,7 +30388,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="58.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
@@ -30389,7 +30397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -30398,7 +30406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -30407,7 +30415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -30416,7 +30424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
@@ -30425,7 +30433,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>45</v>
       </c>
@@ -30434,7 +30442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
@@ -30443,7 +30451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
@@ -30452,7 +30460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -30461,7 +30469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>49</v>
       </c>
@@ -30470,7 +30478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
@@ -30479,7 +30487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>51</v>
       </c>
@@ -30488,7 +30496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>52</v>
       </c>
@@ -30497,7 +30505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>53</v>
       </c>
@@ -30506,7 +30514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>54</v>
       </c>
@@ -30515,7 +30523,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>55</v>
       </c>
@@ -30524,7 +30532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>56</v>
       </c>
@@ -30533,7 +30541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>57</v>
       </c>
@@ -30542,7 +30550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>58</v>
       </c>
@@ -30551,7 +30559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>59</v>
       </c>
@@ -30560,7 +30568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
@@ -30569,7 +30577,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>61</v>
       </c>
@@ -30578,7 +30586,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>62</v>
       </c>
@@ -30587,7 +30595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>63</v>
       </c>
@@ -30596,7 +30604,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>64</v>
       </c>
@@ -30605,7 +30613,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -30614,7 +30622,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>66</v>
       </c>
@@ -30623,7 +30631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>67</v>
       </c>
@@ -30632,7 +30640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>68</v>
       </c>
@@ -30641,7 +30649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>69</v>
       </c>
@@ -30650,7 +30658,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>70</v>
       </c>
@@ -30659,7 +30667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>71</v>
       </c>
@@ -30668,7 +30676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>72</v>
       </c>
@@ -30677,7 +30685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>73</v>
       </c>
@@ -30686,7 +30694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>74</v>
       </c>
@@ -30695,7 +30703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="44" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="45.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>75</v>
       </c>
@@ -30704,7 +30712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>76</v>
       </c>
@@ -30713,7 +30721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>77</v>
       </c>
@@ -30722,7 +30730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>78</v>
       </c>
@@ -30731,7 +30739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>79</v>
       </c>
@@ -30740,7 +30748,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>80</v>
       </c>
@@ -30749,7 +30757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="58.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>81</v>
       </c>
@@ -30758,7 +30766,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>82</v>
       </c>
@@ -30767,7 +30775,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>83</v>
       </c>
@@ -30776,7 +30784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>84</v>
       </c>
@@ -30785,7 +30793,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>85</v>
       </c>
@@ -30794,7 +30802,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>86</v>
       </c>
@@ -30803,7 +30811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>87</v>
       </c>
@@ -30812,7 +30820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>88</v>
       </c>
@@ -30821,7 +30829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>89</v>
       </c>
@@ -30830,7 +30838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>90</v>
       </c>
@@ -30839,7 +30847,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>91</v>
       </c>
@@ -30848,7 +30856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>92</v>
       </c>
@@ -30857,7 +30865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -30866,7 +30874,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>94</v>
       </c>
@@ -30875,7 +30883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>95</v>
       </c>
@@ -30884,7 +30892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>96</v>
       </c>
@@ -30893,7 +30901,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>97</v>
       </c>
@@ -30902,7 +30910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>98</v>
       </c>
@@ -30911,7 +30919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>99</v>
       </c>
@@ -30920,7 +30928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>100</v>
       </c>
@@ -30929,7 +30937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>101</v>
       </c>
@@ -30938,7 +30946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>102</v>
       </c>
@@ -30947,7 +30955,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>103</v>
       </c>
@@ -30956,7 +30964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>104</v>
       </c>
@@ -30965,7 +30973,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>105</v>
       </c>
@@ -30974,7 +30982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>106</v>
       </c>
@@ -30983,7 +30991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>107</v>
       </c>
@@ -30992,7 +31000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>108</v>
       </c>
@@ -31001,7 +31009,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>109</v>
       </c>
@@ -31010,7 +31018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>110</v>
       </c>
@@ -31019,7 +31027,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>111</v>
       </c>
@@ -31028,7 +31036,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>112</v>
       </c>
@@ -31037,7 +31045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>113</v>
       </c>
@@ -31046,7 +31054,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>114</v>
       </c>
@@ -31055,7 +31063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>115</v>
       </c>
@@ -31064,7 +31072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>116</v>
       </c>
@@ -31073,7 +31081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>117</v>
       </c>
@@ -31082,7 +31090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>118</v>
       </c>
@@ -31091,7 +31099,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>119</v>
       </c>
@@ -31100,7 +31108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>120</v>
       </c>
@@ -31109,7 +31117,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>121</v>
       </c>
@@ -31118,7 +31126,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>122</v>
       </c>
@@ -31127,7 +31135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>123</v>
       </c>
@@ -31136,7 +31144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>124</v>
       </c>
@@ -31145,7 +31153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>125</v>
       </c>
@@ -31154,7 +31162,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>126</v>
       </c>
@@ -31163,7 +31171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>127</v>
       </c>
@@ -31172,7 +31180,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -31181,7 +31189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="44" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>129</v>
       </c>
@@ -31190,7 +31198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>130</v>
       </c>
@@ -31199,7 +31207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>131</v>
       </c>
@@ -31208,7 +31216,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>132</v>
       </c>
@@ -31217,7 +31225,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>133</v>
       </c>
@@ -31226,7 +31234,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>134</v>
       </c>
@@ -31235,7 +31243,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>135</v>
       </c>
@@ -31244,7 +31252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" ht="30.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>136</v>
       </c>
@@ -31253,7 +31261,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>137</v>
       </c>
@@ -31262,7 +31270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="29.5" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" ht="30.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>138</v>
       </c>
@@ -31271,7 +31279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -31292,26 +31300,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fb85b12d-9ea0-4af7-b89e-54842e89140c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9e79c3b1-452c-4fb6-ac46-d68c59ca6476" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004082676A57B6E94690E98757219CADCB" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f55959268d8877dccd7d02fd6d1da6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb85b12d-9ea0-4af7-b89e-54842e89140c" xmlns:ns3="9e79c3b1-452c-4fb6-ac46-d68c59ca6476" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c7ac3f3c4afd4630605d7aa14f2de46" ns2:_="" ns3:_="">
     <xsd:import namespace="fb85b12d-9ea0-4af7-b89e-54842e89140c"/>
@@ -31566,10 +31554,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fb85b12d-9ea0-4af7-b89e-54842e89140c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9e79c3b1-452c-4fb6-ac46-d68c59ca6476" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30CFC1D6-D2DC-4450-9D5B-CCF5B5812104}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC46B4C-B91B-4404-8D58-C0EF9EA271F2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fb85b12d-9ea0-4af7-b89e-54842e89140c"/>
+    <ds:schemaRef ds:uri="9e79c3b1-452c-4fb6-ac46-d68c59ca6476"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31592,20 +31611,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC46B4C-B91B-4404-8D58-C0EF9EA271F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30CFC1D6-D2DC-4450-9D5B-CCF5B5812104}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fb85b12d-9ea0-4af7-b89e-54842e89140c"/>
-    <ds:schemaRef ds:uri="9e79c3b1-452c-4fb6-ac46-d68c59ca6476"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>